--- a/icmecat/HELIO4CAST_ICMECAT_v21_master.xlsx
+++ b/icmecat/HELIO4CAST_ICMECAT_v21_master.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4989">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4986">
   <si>
     <t>icmecat_id</t>
   </si>
@@ -10852,15 +10852,6 @@
   </si>
   <si>
     <t>2023-09-25T03:30Z</t>
-  </si>
-  <si>
-    <t>2023-09-25T09:09Z</t>
-  </si>
-  <si>
-    <t>ICME_STEREO_A_MOESTL_20230925_01</t>
-  </si>
-  <si>
-    <t>2023-09-25T10:40Z</t>
   </si>
   <si>
     <t>2023-09-26T06:26Z</t>
@@ -16328,7 +16319,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AQ1344"/>
+  <dimension ref="A1:AQ1343"/>
   <sheetViews>
     <sheetView workbookViewId="0" defaultGridColor="0" colorId="8"/>
   </sheetViews>
@@ -32981,72 +32972,72 @@
         <v>3602</v>
       </c>
       <c r="D962" t="s" s="4">
-        <v>3602</v>
+        <v>3603</v>
       </c>
       <c r="E962" t="s" s="4">
-        <v>3603</v>
+        <v>3604</v>
       </c>
     </row>
     <row r="963" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A963" t="s" s="4">
-        <v>3604</v>
+        <v>3605</v>
       </c>
       <c r="B963" t="s" s="4">
         <v>2585</v>
       </c>
       <c r="C963" t="s" s="4">
-        <v>3605</v>
+        <v>3606</v>
       </c>
       <c r="D963" t="s" s="4">
-        <v>3606</v>
+        <v>3607</v>
       </c>
       <c r="E963" t="s" s="4">
-        <v>3607</v>
+        <v>3608</v>
       </c>
     </row>
     <row r="964" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A964" t="s" s="4">
-        <v>3608</v>
+        <v>3609</v>
       </c>
       <c r="B964" t="s" s="4">
         <v>2585</v>
       </c>
       <c r="C964" t="s" s="4">
-        <v>3609</v>
+        <v>3610</v>
       </c>
       <c r="D964" t="s" s="4">
-        <v>3610</v>
+        <v>3611</v>
       </c>
       <c r="E964" t="s" s="4">
-        <v>3611</v>
+        <v>3612</v>
       </c>
     </row>
     <row r="965" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A965" t="s" s="4">
-        <v>3612</v>
+        <v>3613</v>
       </c>
       <c r="B965" t="s" s="4">
-        <v>2585</v>
+        <v>3614</v>
       </c>
       <c r="C965" t="s" s="4">
-        <v>3613</v>
+        <v>3615</v>
       </c>
       <c r="D965" t="s" s="4">
-        <v>3614</v>
+        <v>3616</v>
       </c>
       <c r="E965" t="s" s="4">
-        <v>3615</v>
+        <v>3617</v>
       </c>
     </row>
     <row r="966" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A966" t="s" s="4">
-        <v>3616</v>
+        <v>3618</v>
       </c>
       <c r="B966" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C966" t="s" s="4">
-        <v>3618</v>
+        <v>3619</v>
       </c>
       <c r="D966" t="s" s="4">
         <v>3619</v>
@@ -33060,27 +33051,27 @@
         <v>3621</v>
       </c>
       <c r="B967" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C967" t="s" s="4">
         <v>3622</v>
       </c>
       <c r="D967" t="s" s="4">
-        <v>3622</v>
+        <v>3623</v>
       </c>
       <c r="E967" t="s" s="4">
-        <v>3623</v>
+        <v>3624</v>
       </c>
     </row>
     <row r="968" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A968" t="s" s="4">
-        <v>3624</v>
+        <v>3625</v>
       </c>
       <c r="B968" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C968" t="s" s="4">
-        <v>3625</v>
+        <v>3626</v>
       </c>
       <c r="D968" t="s" s="4">
         <v>3626</v>
@@ -33094,27 +33085,27 @@
         <v>3628</v>
       </c>
       <c r="B969" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C969" t="s" s="4">
         <v>3629</v>
       </c>
       <c r="D969" t="s" s="4">
-        <v>3629</v>
+        <v>3630</v>
       </c>
       <c r="E969" t="s" s="4">
-        <v>3630</v>
+        <v>3631</v>
       </c>
     </row>
     <row r="970" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A970" t="s" s="4">
-        <v>3631</v>
+        <v>3632</v>
       </c>
       <c r="B970" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C970" t="s" s="4">
-        <v>3632</v>
+        <v>3633</v>
       </c>
       <c r="D970" t="s" s="4">
         <v>3633</v>
@@ -33128,7 +33119,7 @@
         <v>3635</v>
       </c>
       <c r="B971" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C971" t="s" s="4">
         <v>3636</v>
@@ -33145,27 +33136,27 @@
         <v>3638</v>
       </c>
       <c r="B972" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C972" t="s" s="4">
         <v>3639</v>
       </c>
       <c r="D972" t="s" s="4">
-        <v>3639</v>
+        <v>3640</v>
       </c>
       <c r="E972" t="s" s="4">
-        <v>3640</v>
+        <v>3641</v>
       </c>
     </row>
     <row r="973" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A973" t="s" s="4">
-        <v>3641</v>
+        <v>3642</v>
       </c>
       <c r="B973" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C973" t="s" s="4">
-        <v>3642</v>
+        <v>3643</v>
       </c>
       <c r="D973" t="s" s="4">
         <v>3643</v>
@@ -33179,27 +33170,27 @@
         <v>3645</v>
       </c>
       <c r="B974" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C974" t="s" s="4">
         <v>3646</v>
       </c>
       <c r="D974" t="s" s="4">
-        <v>3646</v>
+        <v>3647</v>
       </c>
       <c r="E974" t="s" s="4">
-        <v>3647</v>
+        <v>3648</v>
       </c>
     </row>
     <row r="975" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A975" t="s" s="4">
-        <v>3648</v>
+        <v>3649</v>
       </c>
       <c r="B975" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C975" t="s" s="4">
-        <v>3649</v>
+        <v>3650</v>
       </c>
       <c r="D975" t="s" s="4">
         <v>3650</v>
@@ -33213,7 +33204,7 @@
         <v>3652</v>
       </c>
       <c r="B976" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C976" t="s" s="4">
         <v>3653</v>
@@ -33230,7 +33221,7 @@
         <v>3655</v>
       </c>
       <c r="B977" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C977" t="s" s="4">
         <v>3656</v>
@@ -33247,7 +33238,7 @@
         <v>3658</v>
       </c>
       <c r="B978" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C978" t="s" s="4">
         <v>3659</v>
@@ -33264,27 +33255,27 @@
         <v>3661</v>
       </c>
       <c r="B979" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C979" t="s" s="4">
         <v>3662</v>
       </c>
       <c r="D979" t="s" s="4">
-        <v>3662</v>
+        <v>3663</v>
       </c>
       <c r="E979" t="s" s="4">
-        <v>3663</v>
+        <v>3664</v>
       </c>
     </row>
     <row r="980" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A980" t="s" s="4">
-        <v>3664</v>
+        <v>3665</v>
       </c>
       <c r="B980" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C980" t="s" s="4">
-        <v>3665</v>
+        <v>3666</v>
       </c>
       <c r="D980" t="s" s="4">
         <v>3666</v>
@@ -33298,7 +33289,7 @@
         <v>3668</v>
       </c>
       <c r="B981" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C981" t="s" s="4">
         <v>3669</v>
@@ -33315,27 +33306,27 @@
         <v>3671</v>
       </c>
       <c r="B982" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C982" t="s" s="4">
         <v>3672</v>
       </c>
       <c r="D982" t="s" s="4">
-        <v>3672</v>
+        <v>3673</v>
       </c>
       <c r="E982" t="s" s="4">
-        <v>3673</v>
+        <v>3674</v>
       </c>
     </row>
     <row r="983" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A983" t="s" s="4">
-        <v>3674</v>
+        <v>3675</v>
       </c>
       <c r="B983" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C983" t="s" s="4">
-        <v>3675</v>
+        <v>3676</v>
       </c>
       <c r="D983" t="s" s="4">
         <v>3676</v>
@@ -33349,27 +33340,27 @@
         <v>3678</v>
       </c>
       <c r="B984" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C984" t="s" s="4">
         <v>3679</v>
       </c>
       <c r="D984" t="s" s="4">
-        <v>3679</v>
+        <v>3680</v>
       </c>
       <c r="E984" t="s" s="4">
-        <v>3680</v>
+        <v>3681</v>
       </c>
     </row>
     <row r="985" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A985" t="s" s="4">
-        <v>3681</v>
+        <v>3682</v>
       </c>
       <c r="B985" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C985" t="s" s="4">
-        <v>3682</v>
+        <v>3683</v>
       </c>
       <c r="D985" t="s" s="4">
         <v>3683</v>
@@ -33383,7 +33374,7 @@
         <v>3685</v>
       </c>
       <c r="B986" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C986" t="s" s="4">
         <v>3686</v>
@@ -33400,27 +33391,27 @@
         <v>3688</v>
       </c>
       <c r="B987" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C987" t="s" s="4">
         <v>3689</v>
       </c>
       <c r="D987" t="s" s="4">
-        <v>3689</v>
+        <v>3690</v>
       </c>
       <c r="E987" t="s" s="4">
-        <v>3690</v>
+        <v>3691</v>
       </c>
     </row>
     <row r="988" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A988" t="s" s="4">
-        <v>3691</v>
+        <v>3692</v>
       </c>
       <c r="B988" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C988" t="s" s="4">
-        <v>3692</v>
+        <v>3693</v>
       </c>
       <c r="D988" t="s" s="4">
         <v>3693</v>
@@ -33434,7 +33425,7 @@
         <v>3695</v>
       </c>
       <c r="B989" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C989" t="s" s="4">
         <v>3696</v>
@@ -33451,27 +33442,27 @@
         <v>3698</v>
       </c>
       <c r="B990" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C990" t="s" s="4">
         <v>3699</v>
       </c>
       <c r="D990" t="s" s="4">
-        <v>3699</v>
+        <v>3700</v>
       </c>
       <c r="E990" t="s" s="4">
-        <v>3700</v>
+        <v>3701</v>
       </c>
     </row>
     <row r="991" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A991" t="s" s="4">
-        <v>3701</v>
+        <v>3702</v>
       </c>
       <c r="B991" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C991" t="s" s="4">
-        <v>3702</v>
+        <v>3703</v>
       </c>
       <c r="D991" t="s" s="4">
         <v>3703</v>
@@ -33485,7 +33476,7 @@
         <v>3705</v>
       </c>
       <c r="B992" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C992" t="s" s="4">
         <v>3706</v>
@@ -33502,7 +33493,7 @@
         <v>3708</v>
       </c>
       <c r="B993" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C993" t="s" s="4">
         <v>3709</v>
@@ -33519,27 +33510,27 @@
         <v>3711</v>
       </c>
       <c r="B994" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C994" t="s" s="4">
         <v>3712</v>
       </c>
       <c r="D994" t="s" s="4">
-        <v>3712</v>
+        <v>3713</v>
       </c>
       <c r="E994" t="s" s="4">
-        <v>3713</v>
+        <v>3714</v>
       </c>
     </row>
     <row r="995" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A995" t="s" s="4">
-        <v>3714</v>
+        <v>3715</v>
       </c>
       <c r="B995" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C995" t="s" s="4">
-        <v>3715</v>
+        <v>3716</v>
       </c>
       <c r="D995" t="s" s="4">
         <v>3716</v>
@@ -33553,7 +33544,7 @@
         <v>3718</v>
       </c>
       <c r="B996" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C996" t="s" s="4">
         <v>3719</v>
@@ -33570,7 +33561,7 @@
         <v>3721</v>
       </c>
       <c r="B997" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C997" t="s" s="4">
         <v>3722</v>
@@ -33587,7 +33578,7 @@
         <v>3724</v>
       </c>
       <c r="B998" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C998" t="s" s="4">
         <v>3725</v>
@@ -33604,7 +33595,7 @@
         <v>3727</v>
       </c>
       <c r="B999" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C999" t="s" s="4">
         <v>3728</v>
@@ -33621,7 +33612,7 @@
         <v>3730</v>
       </c>
       <c r="B1000" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1000" t="s" s="4">
         <v>3731</v>
@@ -33638,7 +33629,7 @@
         <v>3733</v>
       </c>
       <c r="B1001" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1001" t="s" s="4">
         <v>3734</v>
@@ -33655,7 +33646,7 @@
         <v>3736</v>
       </c>
       <c r="B1002" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1002" t="s" s="4">
         <v>3737</v>
@@ -33672,61 +33663,61 @@
         <v>3739</v>
       </c>
       <c r="B1003" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1003" t="s" s="4">
         <v>3740</v>
       </c>
       <c r="D1003" t="s" s="4">
-        <v>3740</v>
+        <v>3741</v>
       </c>
       <c r="E1003" t="s" s="4">
-        <v>3741</v>
+        <v>3742</v>
       </c>
     </row>
     <row r="1004" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1004" t="s" s="4">
-        <v>3742</v>
+        <v>3743</v>
       </c>
       <c r="B1004" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1004" t="s" s="4">
-        <v>3743</v>
+        <v>3744</v>
       </c>
       <c r="D1004" t="s" s="4">
-        <v>3744</v>
+        <v>3745</v>
       </c>
       <c r="E1004" t="s" s="4">
-        <v>3745</v>
+        <v>3746</v>
       </c>
     </row>
     <row r="1005" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1005" t="s" s="4">
-        <v>3746</v>
+        <v>3747</v>
       </c>
       <c r="B1005" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1005" t="s" s="4">
-        <v>3747</v>
+        <v>3748</v>
       </c>
       <c r="D1005" t="s" s="4">
-        <v>3748</v>
+        <v>3749</v>
       </c>
       <c r="E1005" t="s" s="4">
-        <v>3749</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="1006" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1006" t="s" s="4">
-        <v>3750</v>
+        <v>3751</v>
       </c>
       <c r="B1006" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1006" t="s" s="4">
-        <v>3751</v>
+        <v>3752</v>
       </c>
       <c r="D1006" t="s" s="4">
         <v>3752</v>
@@ -33740,27 +33731,27 @@
         <v>3754</v>
       </c>
       <c r="B1007" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1007" t="s" s="4">
         <v>3755</v>
       </c>
       <c r="D1007" t="s" s="4">
-        <v>3755</v>
+        <v>3756</v>
       </c>
       <c r="E1007" t="s" s="4">
-        <v>3756</v>
+        <v>3757</v>
       </c>
     </row>
     <row r="1008" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1008" t="s" s="4">
-        <v>3757</v>
+        <v>3758</v>
       </c>
       <c r="B1008" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1008" t="s" s="4">
-        <v>3758</v>
+        <v>3759</v>
       </c>
       <c r="D1008" t="s" s="4">
         <v>3759</v>
@@ -33774,112 +33765,112 @@
         <v>3761</v>
       </c>
       <c r="B1009" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1009" t="s" s="4">
         <v>3762</v>
       </c>
       <c r="D1009" t="s" s="4">
-        <v>3762</v>
+        <v>3763</v>
       </c>
       <c r="E1009" t="s" s="4">
-        <v>3763</v>
+        <v>3764</v>
       </c>
     </row>
     <row r="1010" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1010" t="s" s="4">
-        <v>3764</v>
+        <v>3765</v>
       </c>
       <c r="B1010" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1010" t="s" s="4">
-        <v>3765</v>
+        <v>3766</v>
       </c>
       <c r="D1010" t="s" s="4">
-        <v>3766</v>
+        <v>3767</v>
       </c>
       <c r="E1010" t="s" s="4">
-        <v>3767</v>
+        <v>3768</v>
       </c>
     </row>
     <row r="1011" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1011" t="s" s="4">
-        <v>3768</v>
+        <v>3769</v>
       </c>
       <c r="B1011" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1011" t="s" s="4">
-        <v>3769</v>
+        <v>3770</v>
       </c>
       <c r="D1011" t="s" s="4">
-        <v>3770</v>
+        <v>3771</v>
       </c>
       <c r="E1011" t="s" s="4">
-        <v>3771</v>
+        <v>3772</v>
       </c>
     </row>
     <row r="1012" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1012" t="s" s="4">
-        <v>3772</v>
+        <v>3773</v>
       </c>
       <c r="B1012" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1012" t="s" s="4">
-        <v>3773</v>
+        <v>3774</v>
       </c>
       <c r="D1012" t="s" s="4">
-        <v>3774</v>
+        <v>3775</v>
       </c>
       <c r="E1012" t="s" s="4">
-        <v>3775</v>
+        <v>3776</v>
       </c>
     </row>
     <row r="1013" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1013" t="s" s="4">
-        <v>3776</v>
+        <v>3777</v>
       </c>
       <c r="B1013" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1013" t="s" s="4">
-        <v>3777</v>
+        <v>3778</v>
       </c>
       <c r="D1013" t="s" s="4">
-        <v>3778</v>
+        <v>3779</v>
       </c>
       <c r="E1013" t="s" s="4">
-        <v>3779</v>
+        <v>3780</v>
       </c>
     </row>
     <row r="1014" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1014" t="s" s="4">
-        <v>3780</v>
+        <v>3781</v>
       </c>
       <c r="B1014" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1014" t="s" s="4">
-        <v>3781</v>
+        <v>3782</v>
       </c>
       <c r="D1014" t="s" s="4">
-        <v>3782</v>
+        <v>3783</v>
       </c>
       <c r="E1014" t="s" s="4">
-        <v>3783</v>
+        <v>3784</v>
       </c>
     </row>
     <row r="1015" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1015" t="s" s="4">
-        <v>3784</v>
+        <v>3785</v>
       </c>
       <c r="B1015" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1015" t="s" s="4">
-        <v>3785</v>
+        <v>3786</v>
       </c>
       <c r="D1015" t="s" s="4">
         <v>3786</v>
@@ -33893,7 +33884,7 @@
         <v>3788</v>
       </c>
       <c r="B1016" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1016" t="s" s="4">
         <v>3789</v>
@@ -33910,7 +33901,7 @@
         <v>3791</v>
       </c>
       <c r="B1017" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1017" t="s" s="4">
         <v>3792</v>
@@ -33927,7 +33918,7 @@
         <v>3794</v>
       </c>
       <c r="B1018" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1018" t="s" s="4">
         <v>3795</v>
@@ -33944,27 +33935,27 @@
         <v>3797</v>
       </c>
       <c r="B1019" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1019" t="s" s="4">
         <v>3798</v>
       </c>
       <c r="D1019" t="s" s="4">
-        <v>3798</v>
+        <v>3799</v>
       </c>
       <c r="E1019" t="s" s="4">
-        <v>3799</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="1020" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1020" t="s" s="4">
-        <v>3800</v>
+        <v>3801</v>
       </c>
       <c r="B1020" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1020" t="s" s="4">
-        <v>3801</v>
+        <v>3802</v>
       </c>
       <c r="D1020" t="s" s="4">
         <v>3802</v>
@@ -33978,7 +33969,7 @@
         <v>3804</v>
       </c>
       <c r="B1021" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1021" t="s" s="4">
         <v>3805</v>
@@ -33995,7 +33986,7 @@
         <v>3807</v>
       </c>
       <c r="B1022" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1022" t="s" s="4">
         <v>3808</v>
@@ -34012,7 +34003,7 @@
         <v>3810</v>
       </c>
       <c r="B1023" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1023" t="s" s="4">
         <v>3811</v>
@@ -34029,7 +34020,7 @@
         <v>3813</v>
       </c>
       <c r="B1024" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1024" t="s" s="4">
         <v>3814</v>
@@ -34046,27 +34037,27 @@
         <v>3816</v>
       </c>
       <c r="B1025" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1025" t="s" s="4">
         <v>3817</v>
       </c>
       <c r="D1025" t="s" s="4">
-        <v>3817</v>
+        <v>3818</v>
       </c>
       <c r="E1025" t="s" s="4">
-        <v>3818</v>
+        <v>3819</v>
       </c>
     </row>
     <row r="1026" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1026" t="s" s="4">
+        <v>3820</v>
+      </c>
+      <c r="B1026" t="s" s="4">
+        <v>3614</v>
+      </c>
+      <c r="C1026" t="s" s="4">
         <v>3819</v>
-      </c>
-      <c r="B1026" t="s" s="4">
-        <v>3617</v>
-      </c>
-      <c r="C1026" t="s" s="4">
-        <v>3820</v>
       </c>
       <c r="D1026" t="s" s="4">
         <v>3821</v>
@@ -34080,27 +34071,27 @@
         <v>3823</v>
       </c>
       <c r="B1027" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1027" t="s" s="4">
-        <v>3822</v>
+        <v>3824</v>
       </c>
       <c r="D1027" t="s" s="4">
-        <v>3824</v>
+        <v>3825</v>
       </c>
       <c r="E1027" t="s" s="4">
-        <v>3825</v>
+        <v>3826</v>
       </c>
     </row>
     <row r="1028" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1028" t="s" s="4">
-        <v>3826</v>
+        <v>3827</v>
       </c>
       <c r="B1028" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1028" t="s" s="4">
-        <v>3827</v>
+        <v>3828</v>
       </c>
       <c r="D1028" t="s" s="4">
         <v>3828</v>
@@ -34114,7 +34105,7 @@
         <v>3830</v>
       </c>
       <c r="B1029" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1029" t="s" s="4">
         <v>3831</v>
@@ -34131,61 +34122,61 @@
         <v>3833</v>
       </c>
       <c r="B1030" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1030" t="s" s="4">
         <v>3834</v>
       </c>
       <c r="D1030" t="s" s="4">
-        <v>3834</v>
+        <v>3835</v>
       </c>
       <c r="E1030" t="s" s="4">
-        <v>3835</v>
+        <v>3836</v>
       </c>
     </row>
     <row r="1031" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1031" t="s" s="4">
-        <v>3836</v>
+        <v>3837</v>
       </c>
       <c r="B1031" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1031" t="s" s="4">
-        <v>3837</v>
+        <v>3838</v>
       </c>
       <c r="D1031" t="s" s="4">
-        <v>3838</v>
+        <v>3839</v>
       </c>
       <c r="E1031" t="s" s="4">
-        <v>3839</v>
+        <v>3840</v>
       </c>
     </row>
     <row r="1032" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1032" t="s" s="4">
-        <v>3840</v>
+        <v>3841</v>
       </c>
       <c r="B1032" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1032" t="s" s="4">
-        <v>3841</v>
+        <v>3842</v>
       </c>
       <c r="D1032" t="s" s="4">
-        <v>3842</v>
+        <v>3843</v>
       </c>
       <c r="E1032" t="s" s="4">
-        <v>3843</v>
+        <v>3844</v>
       </c>
     </row>
     <row r="1033" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1033" t="s" s="4">
-        <v>3844</v>
+        <v>3845</v>
       </c>
       <c r="B1033" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1033" t="s" s="4">
-        <v>3845</v>
+        <v>3846</v>
       </c>
       <c r="D1033" t="s" s="4">
         <v>3846</v>
@@ -34199,61 +34190,61 @@
         <v>3848</v>
       </c>
       <c r="B1034" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1034" t="s" s="4">
         <v>3849</v>
       </c>
       <c r="D1034" t="s" s="4">
-        <v>3849</v>
+        <v>3850</v>
       </c>
       <c r="E1034" t="s" s="4">
-        <v>3850</v>
+        <v>3851</v>
       </c>
     </row>
     <row r="1035" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1035" t="s" s="4">
-        <v>3851</v>
+        <v>3852</v>
       </c>
       <c r="B1035" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1035" t="s" s="4">
-        <v>3852</v>
+        <v>3853</v>
       </c>
       <c r="D1035" t="s" s="4">
-        <v>3853</v>
+        <v>3854</v>
       </c>
       <c r="E1035" t="s" s="4">
-        <v>3854</v>
+        <v>3855</v>
       </c>
     </row>
     <row r="1036" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1036" t="s" s="4">
-        <v>3855</v>
+        <v>3856</v>
       </c>
       <c r="B1036" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1036" t="s" s="4">
-        <v>3856</v>
+        <v>3857</v>
       </c>
       <c r="D1036" t="s" s="4">
-        <v>3857</v>
+        <v>3858</v>
       </c>
       <c r="E1036" t="s" s="4">
-        <v>3858</v>
+        <v>3859</v>
       </c>
     </row>
     <row r="1037" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1037" t="s" s="4">
-        <v>3859</v>
+        <v>3860</v>
       </c>
       <c r="B1037" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1037" t="s" s="4">
-        <v>3860</v>
+        <v>3861</v>
       </c>
       <c r="D1037" t="s" s="4">
         <v>3861</v>
@@ -34267,7 +34258,7 @@
         <v>3863</v>
       </c>
       <c r="B1038" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1038" t="s" s="4">
         <v>3864</v>
@@ -34284,129 +34275,129 @@
         <v>3866</v>
       </c>
       <c r="B1039" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1039" t="s" s="4">
         <v>3867</v>
       </c>
       <c r="D1039" t="s" s="4">
-        <v>3867</v>
+        <v>3868</v>
       </c>
       <c r="E1039" t="s" s="4">
-        <v>3868</v>
+        <v>3869</v>
       </c>
     </row>
     <row r="1040" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1040" t="s" s="4">
-        <v>3869</v>
+        <v>3870</v>
       </c>
       <c r="B1040" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1040" t="s" s="4">
-        <v>3870</v>
+        <v>3871</v>
       </c>
       <c r="D1040" t="s" s="4">
-        <v>3871</v>
+        <v>3872</v>
       </c>
       <c r="E1040" t="s" s="4">
-        <v>3872</v>
+        <v>3873</v>
       </c>
     </row>
     <row r="1041" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1041" t="s" s="4">
-        <v>3873</v>
+        <v>3874</v>
       </c>
       <c r="B1041" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1041" t="s" s="4">
-        <v>3874</v>
+        <v>3875</v>
       </c>
       <c r="D1041" t="s" s="4">
-        <v>3875</v>
+        <v>3876</v>
       </c>
       <c r="E1041" t="s" s="4">
-        <v>3876</v>
+        <v>3877</v>
       </c>
     </row>
     <row r="1042" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1042" t="s" s="4">
-        <v>3877</v>
+        <v>3878</v>
       </c>
       <c r="B1042" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1042" t="s" s="4">
-        <v>3878</v>
+        <v>3879</v>
       </c>
       <c r="D1042" t="s" s="4">
-        <v>3879</v>
+        <v>3880</v>
       </c>
       <c r="E1042" t="s" s="4">
-        <v>3880</v>
+        <v>3881</v>
       </c>
     </row>
     <row r="1043" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1043" t="s" s="4">
-        <v>3881</v>
+        <v>3882</v>
       </c>
       <c r="B1043" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1043" t="s" s="4">
-        <v>3882</v>
+        <v>3883</v>
       </c>
       <c r="D1043" t="s" s="4">
-        <v>3883</v>
+        <v>3884</v>
       </c>
       <c r="E1043" t="s" s="4">
-        <v>3884</v>
+        <v>3885</v>
       </c>
     </row>
     <row r="1044" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1044" t="s" s="4">
-        <v>3885</v>
+        <v>3886</v>
       </c>
       <c r="B1044" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1044" t="s" s="4">
-        <v>3886</v>
+        <v>3887</v>
       </c>
       <c r="D1044" t="s" s="4">
-        <v>3887</v>
+        <v>3888</v>
       </c>
       <c r="E1044" t="s" s="4">
-        <v>3888</v>
+        <v>3889</v>
       </c>
     </row>
     <row r="1045" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1045" t="s" s="4">
-        <v>3889</v>
+        <v>3890</v>
       </c>
       <c r="B1045" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1045" t="s" s="4">
-        <v>3890</v>
+        <v>3891</v>
       </c>
       <c r="D1045" t="s" s="4">
-        <v>3891</v>
+        <v>3892</v>
       </c>
       <c r="E1045" t="s" s="4">
-        <v>3892</v>
+        <v>3893</v>
       </c>
     </row>
     <row r="1046" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1046" t="s" s="4">
-        <v>3893</v>
+        <v>3894</v>
       </c>
       <c r="B1046" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1046" t="s" s="4">
-        <v>3894</v>
+        <v>3895</v>
       </c>
       <c r="D1046" t="s" s="4">
         <v>3895</v>
@@ -34420,61 +34411,61 @@
         <v>3897</v>
       </c>
       <c r="B1047" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1047" t="s" s="4">
         <v>3898</v>
       </c>
       <c r="D1047" t="s" s="4">
-        <v>3898</v>
+        <v>3899</v>
       </c>
       <c r="E1047" t="s" s="4">
-        <v>3899</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="1048" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1048" t="s" s="4">
-        <v>3900</v>
+        <v>3901</v>
       </c>
       <c r="B1048" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1048" t="s" s="4">
-        <v>3901</v>
+        <v>3902</v>
       </c>
       <c r="D1048" t="s" s="4">
-        <v>3902</v>
+        <v>3903</v>
       </c>
       <c r="E1048" t="s" s="4">
-        <v>3903</v>
+        <v>3904</v>
       </c>
     </row>
     <row r="1049" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1049" t="s" s="4">
-        <v>3904</v>
+        <v>3905</v>
       </c>
       <c r="B1049" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1049" t="s" s="4">
-        <v>3905</v>
+        <v>3906</v>
       </c>
       <c r="D1049" t="s" s="4">
-        <v>3906</v>
+        <v>3907</v>
       </c>
       <c r="E1049" t="s" s="4">
-        <v>3907</v>
+        <v>3908</v>
       </c>
     </row>
     <row r="1050" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1050" t="s" s="4">
-        <v>3908</v>
+        <v>3909</v>
       </c>
       <c r="B1050" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1050" t="s" s="4">
-        <v>3909</v>
+        <v>3910</v>
       </c>
       <c r="D1050" t="s" s="4">
         <v>3910</v>
@@ -34488,61 +34479,61 @@
         <v>3912</v>
       </c>
       <c r="B1051" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1051" t="s" s="4">
         <v>3913</v>
       </c>
       <c r="D1051" t="s" s="4">
-        <v>3913</v>
+        <v>3914</v>
       </c>
       <c r="E1051" t="s" s="4">
-        <v>3914</v>
+        <v>3915</v>
       </c>
     </row>
     <row r="1052" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1052" t="s" s="4">
-        <v>3915</v>
+        <v>3916</v>
       </c>
       <c r="B1052" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1052" t="s" s="4">
-        <v>3916</v>
+        <v>3917</v>
       </c>
       <c r="D1052" t="s" s="4">
-        <v>3917</v>
+        <v>3918</v>
       </c>
       <c r="E1052" t="s" s="4">
-        <v>3918</v>
+        <v>3919</v>
       </c>
     </row>
     <row r="1053" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1053" t="s" s="4">
-        <v>3919</v>
+        <v>3920</v>
       </c>
       <c r="B1053" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1053" t="s" s="4">
-        <v>3920</v>
+        <v>3921</v>
       </c>
       <c r="D1053" t="s" s="4">
-        <v>3921</v>
+        <v>3922</v>
       </c>
       <c r="E1053" t="s" s="4">
-        <v>3922</v>
+        <v>3923</v>
       </c>
     </row>
     <row r="1054" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1054" t="s" s="4">
-        <v>3923</v>
+        <v>3924</v>
       </c>
       <c r="B1054" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1054" t="s" s="4">
-        <v>3924</v>
+        <v>3925</v>
       </c>
       <c r="D1054" t="s" s="4">
         <v>3925</v>
@@ -34556,7 +34547,7 @@
         <v>3927</v>
       </c>
       <c r="B1055" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1055" t="s" s="4">
         <v>3928</v>
@@ -34573,61 +34564,61 @@
         <v>3930</v>
       </c>
       <c r="B1056" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1056" t="s" s="4">
         <v>3931</v>
       </c>
       <c r="D1056" t="s" s="4">
-        <v>3931</v>
+        <v>3932</v>
       </c>
       <c r="E1056" t="s" s="4">
-        <v>3932</v>
+        <v>3933</v>
       </c>
     </row>
     <row r="1057" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1057" t="s" s="4">
-        <v>3933</v>
+        <v>3934</v>
       </c>
       <c r="B1057" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1057" t="s" s="4">
-        <v>3934</v>
+        <v>3935</v>
       </c>
       <c r="D1057" t="s" s="4">
-        <v>3935</v>
+        <v>3936</v>
       </c>
       <c r="E1057" t="s" s="4">
-        <v>3936</v>
+        <v>3937</v>
       </c>
     </row>
     <row r="1058" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1058" t="s" s="4">
-        <v>3937</v>
+        <v>3938</v>
       </c>
       <c r="B1058" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1058" t="s" s="4">
-        <v>3938</v>
+        <v>3939</v>
       </c>
       <c r="D1058" t="s" s="4">
-        <v>3939</v>
+        <v>3940</v>
       </c>
       <c r="E1058" t="s" s="4">
-        <v>3940</v>
+        <v>3941</v>
       </c>
     </row>
     <row r="1059" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1059" t="s" s="4">
-        <v>3941</v>
+        <v>3942</v>
       </c>
       <c r="B1059" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1059" t="s" s="4">
-        <v>3942</v>
+        <v>3943</v>
       </c>
       <c r="D1059" t="s" s="4">
         <v>3943</v>
@@ -34641,44 +34632,44 @@
         <v>3945</v>
       </c>
       <c r="B1060" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1060" t="s" s="4">
         <v>3946</v>
       </c>
       <c r="D1060" t="s" s="4">
-        <v>3946</v>
+        <v>3947</v>
       </c>
       <c r="E1060" t="s" s="4">
-        <v>3947</v>
+        <v>3948</v>
       </c>
     </row>
     <row r="1061" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1061" t="s" s="4">
-        <v>3948</v>
+        <v>3949</v>
       </c>
       <c r="B1061" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1061" t="s" s="4">
-        <v>3949</v>
+        <v>3950</v>
       </c>
       <c r="D1061" t="s" s="4">
-        <v>3950</v>
+        <v>3951</v>
       </c>
       <c r="E1061" t="s" s="4">
-        <v>3951</v>
+        <v>3952</v>
       </c>
     </row>
     <row r="1062" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1062" t="s" s="4">
-        <v>3952</v>
+        <v>3953</v>
       </c>
       <c r="B1062" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1062" t="s" s="4">
-        <v>3953</v>
+        <v>3954</v>
       </c>
       <c r="D1062" t="s" s="4">
         <v>3954</v>
@@ -34692,7 +34683,7 @@
         <v>3956</v>
       </c>
       <c r="B1063" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1063" t="s" s="4">
         <v>3957</v>
@@ -34709,27 +34700,27 @@
         <v>3959</v>
       </c>
       <c r="B1064" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1064" t="s" s="4">
         <v>3960</v>
       </c>
       <c r="D1064" t="s" s="4">
-        <v>3960</v>
+        <v>3961</v>
       </c>
       <c r="E1064" t="s" s="4">
-        <v>3961</v>
+        <v>3962</v>
       </c>
     </row>
     <row r="1065" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1065" t="s" s="4">
-        <v>3962</v>
+        <v>3963</v>
       </c>
       <c r="B1065" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1065" t="s" s="4">
-        <v>3963</v>
+        <v>3964</v>
       </c>
       <c r="D1065" t="s" s="4">
         <v>3964</v>
@@ -34743,44 +34734,44 @@
         <v>3966</v>
       </c>
       <c r="B1066" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1066" t="s" s="4">
         <v>3967</v>
       </c>
       <c r="D1066" t="s" s="4">
-        <v>3967</v>
+        <v>3968</v>
       </c>
       <c r="E1066" t="s" s="4">
-        <v>3968</v>
+        <v>3969</v>
       </c>
     </row>
     <row r="1067" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1067" t="s" s="4">
-        <v>3969</v>
+        <v>3970</v>
       </c>
       <c r="B1067" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1067" t="s" s="4">
-        <v>3970</v>
+        <v>3971</v>
       </c>
       <c r="D1067" t="s" s="4">
-        <v>3971</v>
+        <v>3972</v>
       </c>
       <c r="E1067" t="s" s="4">
-        <v>3972</v>
+        <v>3973</v>
       </c>
     </row>
     <row r="1068" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1068" t="s" s="4">
-        <v>3973</v>
+        <v>3974</v>
       </c>
       <c r="B1068" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1068" t="s" s="4">
-        <v>3974</v>
+        <v>3975</v>
       </c>
       <c r="D1068" t="s" s="4">
         <v>3975</v>
@@ -34794,44 +34785,44 @@
         <v>3977</v>
       </c>
       <c r="B1069" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1069" t="s" s="4">
         <v>3978</v>
       </c>
       <c r="D1069" t="s" s="4">
-        <v>3978</v>
+        <v>3979</v>
       </c>
       <c r="E1069" t="s" s="4">
-        <v>3979</v>
+        <v>3980</v>
       </c>
     </row>
     <row r="1070" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1070" t="s" s="4">
-        <v>3980</v>
+        <v>3981</v>
       </c>
       <c r="B1070" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1070" t="s" s="4">
-        <v>3981</v>
+        <v>3982</v>
       </c>
       <c r="D1070" t="s" s="4">
-        <v>3982</v>
+        <v>3983</v>
       </c>
       <c r="E1070" t="s" s="4">
-        <v>3983</v>
+        <v>3984</v>
       </c>
     </row>
     <row r="1071" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1071" t="s" s="4">
-        <v>3984</v>
+        <v>3985</v>
       </c>
       <c r="B1071" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1071" t="s" s="4">
-        <v>3985</v>
+        <v>3986</v>
       </c>
       <c r="D1071" t="s" s="4">
         <v>3986</v>
@@ -34845,7 +34836,7 @@
         <v>3988</v>
       </c>
       <c r="B1072" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1072" t="s" s="4">
         <v>3989</v>
@@ -34862,27 +34853,27 @@
         <v>3991</v>
       </c>
       <c r="B1073" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1073" t="s" s="4">
         <v>3992</v>
       </c>
       <c r="D1073" t="s" s="4">
-        <v>3992</v>
+        <v>3993</v>
       </c>
       <c r="E1073" t="s" s="4">
-        <v>3993</v>
+        <v>3994</v>
       </c>
     </row>
     <row r="1074" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1074" t="s" s="4">
-        <v>3994</v>
+        <v>3995</v>
       </c>
       <c r="B1074" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1074" t="s" s="4">
-        <v>3995</v>
+        <v>3996</v>
       </c>
       <c r="D1074" t="s" s="4">
         <v>3996</v>
@@ -34896,27 +34887,27 @@
         <v>3998</v>
       </c>
       <c r="B1075" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1075" t="s" s="4">
         <v>3999</v>
       </c>
       <c r="D1075" t="s" s="4">
-        <v>3999</v>
+        <v>4000</v>
       </c>
       <c r="E1075" t="s" s="4">
-        <v>4000</v>
+        <v>4001</v>
       </c>
     </row>
     <row r="1076" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1076" t="s" s="4">
-        <v>4001</v>
+        <v>4002</v>
       </c>
       <c r="B1076" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1076" t="s" s="4">
-        <v>4002</v>
+        <v>4003</v>
       </c>
       <c r="D1076" t="s" s="4">
         <v>4003</v>
@@ -34930,27 +34921,27 @@
         <v>4005</v>
       </c>
       <c r="B1077" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1077" t="s" s="4">
         <v>4006</v>
       </c>
       <c r="D1077" t="s" s="4">
-        <v>4006</v>
+        <v>4007</v>
       </c>
       <c r="E1077" t="s" s="4">
-        <v>4007</v>
+        <v>4008</v>
       </c>
     </row>
     <row r="1078" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1078" t="s" s="4">
-        <v>4008</v>
+        <v>4009</v>
       </c>
       <c r="B1078" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1078" t="s" s="4">
-        <v>4009</v>
+        <v>4010</v>
       </c>
       <c r="D1078" t="s" s="4">
         <v>4010</v>
@@ -34964,27 +34955,27 @@
         <v>4012</v>
       </c>
       <c r="B1079" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1079" t="s" s="4">
         <v>4013</v>
       </c>
       <c r="D1079" t="s" s="4">
-        <v>4013</v>
+        <v>4014</v>
       </c>
       <c r="E1079" t="s" s="4">
-        <v>4014</v>
+        <v>4015</v>
       </c>
     </row>
     <row r="1080" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1080" t="s" s="4">
-        <v>4015</v>
+        <v>4016</v>
       </c>
       <c r="B1080" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1080" t="s" s="4">
-        <v>4016</v>
+        <v>4017</v>
       </c>
       <c r="D1080" t="s" s="4">
         <v>4017</v>
@@ -34998,7 +34989,7 @@
         <v>4019</v>
       </c>
       <c r="B1081" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1081" t="s" s="4">
         <v>4020</v>
@@ -35015,7 +35006,7 @@
         <v>4022</v>
       </c>
       <c r="B1082" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1082" t="s" s="4">
         <v>4023</v>
@@ -35032,78 +35023,78 @@
         <v>4025</v>
       </c>
       <c r="B1083" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1083" t="s" s="4">
         <v>4026</v>
       </c>
       <c r="D1083" t="s" s="4">
-        <v>4026</v>
+        <v>4027</v>
       </c>
       <c r="E1083" t="s" s="4">
-        <v>4027</v>
+        <v>4028</v>
       </c>
     </row>
     <row r="1084" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1084" t="s" s="4">
-        <v>4028</v>
+        <v>4029</v>
       </c>
       <c r="B1084" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1084" t="s" s="4">
-        <v>4029</v>
+        <v>4030</v>
       </c>
       <c r="D1084" t="s" s="4">
-        <v>4030</v>
+        <v>4031</v>
       </c>
       <c r="E1084" t="s" s="4">
-        <v>4031</v>
+        <v>4032</v>
       </c>
     </row>
     <row r="1085" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1085" t="s" s="4">
-        <v>4032</v>
+        <v>4033</v>
       </c>
       <c r="B1085" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1085" t="s" s="4">
-        <v>4033</v>
+        <v>4034</v>
       </c>
       <c r="D1085" t="s" s="4">
-        <v>4034</v>
+        <v>4035</v>
       </c>
       <c r="E1085" t="s" s="4">
-        <v>4035</v>
+        <v>4036</v>
       </c>
     </row>
     <row r="1086" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1086" t="s" s="4">
-        <v>4036</v>
+        <v>4037</v>
       </c>
       <c r="B1086" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1086" t="s" s="4">
-        <v>4037</v>
+        <v>4038</v>
       </c>
       <c r="D1086" t="s" s="4">
-        <v>4038</v>
+        <v>4039</v>
       </c>
       <c r="E1086" t="s" s="4">
-        <v>4039</v>
+        <v>4040</v>
       </c>
     </row>
     <row r="1087" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1087" t="s" s="4">
-        <v>4040</v>
+        <v>4041</v>
       </c>
       <c r="B1087" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1087" t="s" s="4">
-        <v>4041</v>
+        <v>4042</v>
       </c>
       <c r="D1087" t="s" s="4">
         <v>4042</v>
@@ -35117,7 +35108,7 @@
         <v>4044</v>
       </c>
       <c r="B1088" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1088" t="s" s="4">
         <v>4045</v>
@@ -35134,44 +35125,44 @@
         <v>4047</v>
       </c>
       <c r="B1089" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1089" t="s" s="4">
         <v>4048</v>
       </c>
       <c r="D1089" t="s" s="4">
-        <v>4048</v>
+        <v>4049</v>
       </c>
       <c r="E1089" t="s" s="4">
-        <v>4049</v>
+        <v>4050</v>
       </c>
     </row>
     <row r="1090" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1090" t="s" s="4">
-        <v>4050</v>
+        <v>4051</v>
       </c>
       <c r="B1090" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1090" t="s" s="4">
-        <v>4051</v>
+        <v>4052</v>
       </c>
       <c r="D1090" t="s" s="4">
-        <v>4052</v>
+        <v>4053</v>
       </c>
       <c r="E1090" t="s" s="4">
-        <v>4053</v>
+        <v>4054</v>
       </c>
     </row>
     <row r="1091" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1091" t="s" s="4">
-        <v>4054</v>
+        <v>4055</v>
       </c>
       <c r="B1091" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1091" t="s" s="4">
-        <v>4055</v>
+        <v>4056</v>
       </c>
       <c r="D1091" t="s" s="4">
         <v>4056</v>
@@ -35185,44 +35176,44 @@
         <v>4058</v>
       </c>
       <c r="B1092" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1092" t="s" s="4">
         <v>4059</v>
       </c>
       <c r="D1092" t="s" s="4">
-        <v>4059</v>
+        <v>4060</v>
       </c>
       <c r="E1092" t="s" s="4">
-        <v>4060</v>
+        <v>4061</v>
       </c>
     </row>
     <row r="1093" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1093" t="s" s="4">
-        <v>4061</v>
+        <v>4062</v>
       </c>
       <c r="B1093" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1093" t="s" s="4">
-        <v>4062</v>
+        <v>4063</v>
       </c>
       <c r="D1093" t="s" s="4">
-        <v>4063</v>
+        <v>4064</v>
       </c>
       <c r="E1093" t="s" s="4">
-        <v>4064</v>
+        <v>4065</v>
       </c>
     </row>
     <row r="1094" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1094" t="s" s="4">
-        <v>4065</v>
+        <v>4066</v>
       </c>
       <c r="B1094" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1094" t="s" s="4">
-        <v>4066</v>
+        <v>4067</v>
       </c>
       <c r="D1094" t="s" s="4">
         <v>4067</v>
@@ -35236,27 +35227,27 @@
         <v>4069</v>
       </c>
       <c r="B1095" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1095" t="s" s="4">
         <v>4070</v>
       </c>
       <c r="D1095" t="s" s="4">
-        <v>4070</v>
+        <v>4071</v>
       </c>
       <c r="E1095" t="s" s="4">
-        <v>4071</v>
+        <v>4072</v>
       </c>
     </row>
     <row r="1096" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1096" t="s" s="4">
-        <v>4072</v>
+        <v>4073</v>
       </c>
       <c r="B1096" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1096" t="s" s="4">
-        <v>4073</v>
+        <v>4074</v>
       </c>
       <c r="D1096" t="s" s="4">
         <v>4074</v>
@@ -35270,7 +35261,7 @@
         <v>4076</v>
       </c>
       <c r="B1097" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1097" t="s" s="4">
         <v>4077</v>
@@ -35287,44 +35278,44 @@
         <v>4079</v>
       </c>
       <c r="B1098" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1098" t="s" s="4">
         <v>4080</v>
       </c>
       <c r="D1098" t="s" s="4">
-        <v>4080</v>
+        <v>4081</v>
       </c>
       <c r="E1098" t="s" s="4">
-        <v>4081</v>
+        <v>4082</v>
       </c>
     </row>
     <row r="1099" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1099" t="s" s="4">
-        <v>4082</v>
+        <v>4083</v>
       </c>
       <c r="B1099" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1099" t="s" s="4">
-        <v>4083</v>
+        <v>4084</v>
       </c>
       <c r="D1099" t="s" s="4">
-        <v>4084</v>
+        <v>4085</v>
       </c>
       <c r="E1099" t="s" s="4">
-        <v>4085</v>
+        <v>4086</v>
       </c>
     </row>
     <row r="1100" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1100" t="s" s="4">
-        <v>4086</v>
+        <v>4087</v>
       </c>
       <c r="B1100" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1100" t="s" s="4">
-        <v>4087</v>
+        <v>4088</v>
       </c>
       <c r="D1100" t="s" s="4">
         <v>4088</v>
@@ -35338,7 +35329,7 @@
         <v>4090</v>
       </c>
       <c r="B1101" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1101" t="s" s="4">
         <v>4091</v>
@@ -35355,7 +35346,7 @@
         <v>4093</v>
       </c>
       <c r="B1102" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1102" t="s" s="4">
         <v>4094</v>
@@ -35372,27 +35363,27 @@
         <v>4096</v>
       </c>
       <c r="B1103" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1103" t="s" s="4">
         <v>4097</v>
       </c>
       <c r="D1103" t="s" s="4">
-        <v>4097</v>
+        <v>4098</v>
       </c>
       <c r="E1103" t="s" s="4">
-        <v>4098</v>
+        <v>4099</v>
       </c>
     </row>
     <row r="1104" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1104" t="s" s="4">
-        <v>4099</v>
+        <v>4100</v>
       </c>
       <c r="B1104" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1104" t="s" s="4">
-        <v>4100</v>
+        <v>4101</v>
       </c>
       <c r="D1104" t="s" s="4">
         <v>4101</v>
@@ -35406,7 +35397,7 @@
         <v>4103</v>
       </c>
       <c r="B1105" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1105" t="s" s="4">
         <v>4104</v>
@@ -35423,95 +35414,95 @@
         <v>4106</v>
       </c>
       <c r="B1106" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1106" t="s" s="4">
         <v>4107</v>
       </c>
       <c r="D1106" t="s" s="4">
-        <v>4107</v>
+        <v>4108</v>
       </c>
       <c r="E1106" t="s" s="4">
-        <v>4108</v>
+        <v>4109</v>
       </c>
     </row>
     <row r="1107" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1107" t="s" s="4">
-        <v>4109</v>
+        <v>4110</v>
       </c>
       <c r="B1107" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1107" t="s" s="4">
-        <v>4110</v>
+        <v>4111</v>
       </c>
       <c r="D1107" t="s" s="4">
-        <v>4111</v>
+        <v>4112</v>
       </c>
       <c r="E1107" t="s" s="4">
-        <v>4112</v>
+        <v>4113</v>
       </c>
     </row>
     <row r="1108" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1108" t="s" s="4">
-        <v>4113</v>
+        <v>4114</v>
       </c>
       <c r="B1108" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1108" t="s" s="4">
-        <v>4114</v>
+        <v>4115</v>
       </c>
       <c r="D1108" t="s" s="4">
-        <v>4115</v>
+        <v>4116</v>
       </c>
       <c r="E1108" t="s" s="4">
-        <v>4116</v>
+        <v>4117</v>
       </c>
     </row>
     <row r="1109" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1109" t="s" s="4">
-        <v>4117</v>
+        <v>4118</v>
       </c>
       <c r="B1109" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1109" t="s" s="4">
-        <v>4118</v>
+        <v>4119</v>
       </c>
       <c r="D1109" t="s" s="4">
-        <v>4119</v>
+        <v>4120</v>
       </c>
       <c r="E1109" t="s" s="4">
-        <v>4120</v>
+        <v>4121</v>
       </c>
     </row>
     <row r="1110" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1110" t="s" s="4">
-        <v>4121</v>
+        <v>4122</v>
       </c>
       <c r="B1110" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1110" t="s" s="4">
-        <v>4122</v>
+        <v>4123</v>
       </c>
       <c r="D1110" t="s" s="4">
-        <v>4123</v>
+        <v>4124</v>
       </c>
       <c r="E1110" t="s" s="4">
-        <v>4124</v>
+        <v>4125</v>
       </c>
     </row>
     <row r="1111" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1111" t="s" s="4">
-        <v>4125</v>
+        <v>4126</v>
       </c>
       <c r="B1111" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1111" t="s" s="4">
-        <v>4126</v>
+        <v>4127</v>
       </c>
       <c r="D1111" t="s" s="4">
         <v>4127</v>
@@ -35525,180 +35516,180 @@
         <v>4129</v>
       </c>
       <c r="B1112" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1112" t="s" s="4">
         <v>4130</v>
       </c>
       <c r="D1112" t="s" s="4">
-        <v>4130</v>
+        <v>4131</v>
       </c>
       <c r="E1112" t="s" s="4">
-        <v>4131</v>
+        <v>4132</v>
       </c>
     </row>
     <row r="1113" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1113" t="s" s="4">
-        <v>4132</v>
+        <v>4133</v>
       </c>
       <c r="B1113" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1113" t="s" s="4">
-        <v>4133</v>
+        <v>4134</v>
       </c>
       <c r="D1113" t="s" s="4">
-        <v>4134</v>
+        <v>4135</v>
       </c>
       <c r="E1113" t="s" s="4">
-        <v>4135</v>
+        <v>4136</v>
       </c>
     </row>
     <row r="1114" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1114" t="s" s="4">
-        <v>4136</v>
+        <v>4137</v>
       </c>
       <c r="B1114" t="s" s="4">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1114" t="s" s="4">
-        <v>4137</v>
+        <v>4138</v>
       </c>
       <c r="D1114" t="s" s="4">
-        <v>4138</v>
+        <v>4139</v>
       </c>
       <c r="E1114" t="s" s="4">
-        <v>4139</v>
+        <v>4140</v>
       </c>
     </row>
     <row r="1115" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1115" t="s" s="4">
-        <v>4140</v>
+        <v>4141</v>
       </c>
       <c r="B1115" t="s" s="4">
-        <v>3617</v>
+        <v>4142</v>
       </c>
       <c r="C1115" t="s" s="4">
-        <v>4141</v>
+        <v>4143</v>
       </c>
       <c r="D1115" t="s" s="4">
-        <v>4142</v>
+        <v>4144</v>
       </c>
       <c r="E1115" t="s" s="4">
-        <v>4143</v>
+        <v>4145</v>
       </c>
     </row>
     <row r="1116" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1116" t="s" s="4">
-        <v>4144</v>
+        <v>4146</v>
       </c>
       <c r="B1116" t="s" s="4">
-        <v>4145</v>
+        <v>4142</v>
       </c>
       <c r="C1116" t="s" s="4">
-        <v>4146</v>
+        <v>4147</v>
       </c>
       <c r="D1116" t="s" s="4">
-        <v>4147</v>
+        <v>4148</v>
       </c>
       <c r="E1116" t="s" s="4">
-        <v>4148</v>
+        <v>4149</v>
       </c>
     </row>
     <row r="1117" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1117" t="s" s="4">
-        <v>4149</v>
+        <v>4150</v>
       </c>
       <c r="B1117" t="s" s="4">
-        <v>4145</v>
+        <v>4142</v>
       </c>
       <c r="C1117" t="s" s="4">
-        <v>4150</v>
+        <v>4151</v>
       </c>
       <c r="D1117" t="s" s="4">
-        <v>4151</v>
+        <v>4152</v>
       </c>
       <c r="E1117" t="s" s="4">
-        <v>4152</v>
+        <v>4153</v>
       </c>
     </row>
     <row r="1118" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1118" t="s" s="4">
-        <v>4153</v>
+        <v>4154</v>
       </c>
       <c r="B1118" t="s" s="4">
-        <v>4145</v>
+        <v>4142</v>
       </c>
       <c r="C1118" t="s" s="4">
-        <v>4154</v>
+        <v>4155</v>
       </c>
       <c r="D1118" t="s" s="4">
-        <v>4155</v>
+        <v>4156</v>
       </c>
       <c r="E1118" t="s" s="4">
-        <v>4156</v>
+        <v>4157</v>
       </c>
     </row>
     <row r="1119" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1119" t="s" s="4">
-        <v>4157</v>
+        <v>4158</v>
       </c>
       <c r="B1119" t="s" s="4">
-        <v>4145</v>
+        <v>4142</v>
       </c>
       <c r="C1119" t="s" s="4">
-        <v>4158</v>
+        <v>4159</v>
       </c>
       <c r="D1119" t="s" s="4">
-        <v>4159</v>
+        <v>4160</v>
       </c>
       <c r="E1119" t="s" s="4">
-        <v>4160</v>
+        <v>4161</v>
       </c>
     </row>
     <row r="1120" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1120" t="s" s="4">
-        <v>4161</v>
+        <v>4162</v>
       </c>
       <c r="B1120" t="s" s="4">
-        <v>4145</v>
+        <v>4142</v>
       </c>
       <c r="C1120" t="s" s="4">
-        <v>4162</v>
+        <v>4163</v>
       </c>
       <c r="D1120" t="s" s="4">
-        <v>4163</v>
+        <v>4164</v>
       </c>
       <c r="E1120" t="s" s="4">
-        <v>4164</v>
+        <v>4165</v>
       </c>
     </row>
     <row r="1121" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1121" t="s" s="4">
-        <v>4165</v>
+        <v>4166</v>
       </c>
       <c r="B1121" t="s" s="4">
-        <v>4145</v>
+        <v>4142</v>
       </c>
       <c r="C1121" t="s" s="4">
-        <v>4166</v>
+        <v>4167</v>
       </c>
       <c r="D1121" t="s" s="4">
-        <v>4167</v>
+        <v>4168</v>
       </c>
       <c r="E1121" t="s" s="4">
-        <v>4168</v>
+        <v>4169</v>
       </c>
     </row>
     <row r="1122" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1122" t="s" s="4">
-        <v>4169</v>
+        <v>4170</v>
       </c>
       <c r="B1122" t="s" s="4">
-        <v>4145</v>
+        <v>4142</v>
       </c>
       <c r="C1122" t="s" s="4">
-        <v>4170</v>
+        <v>4171</v>
       </c>
       <c r="D1122" t="s" s="4">
         <v>4171</v>
@@ -35712,466 +35703,466 @@
         <v>4173</v>
       </c>
       <c r="B1123" t="s" s="4">
-        <v>4145</v>
+        <v>4142</v>
       </c>
       <c r="C1123" t="s" s="4">
         <v>4174</v>
       </c>
       <c r="D1123" t="s" s="4">
-        <v>4174</v>
+        <v>4175</v>
       </c>
       <c r="E1123" t="s" s="4">
-        <v>4175</v>
+        <v>4176</v>
       </c>
     </row>
     <row r="1124" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1124" t="s" s="4">
-        <v>4176</v>
+        <v>4177</v>
       </c>
       <c r="B1124" t="s" s="4">
-        <v>4145</v>
+        <v>4142</v>
       </c>
       <c r="C1124" t="s" s="4">
-        <v>4177</v>
+        <v>4178</v>
       </c>
       <c r="D1124" t="s" s="4">
-        <v>4178</v>
+        <v>4179</v>
       </c>
       <c r="E1124" t="s" s="4">
-        <v>4179</v>
+        <v>4180</v>
       </c>
     </row>
     <row r="1125" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1125" t="s" s="4">
-        <v>4180</v>
+        <v>4181</v>
       </c>
       <c r="B1125" t="s" s="4">
-        <v>4145</v>
+        <v>4142</v>
       </c>
       <c r="C1125" t="s" s="4">
-        <v>4181</v>
+        <v>4182</v>
       </c>
       <c r="D1125" t="s" s="4">
-        <v>4182</v>
+        <v>4183</v>
       </c>
       <c r="E1125" t="s" s="4">
-        <v>4183</v>
+        <v>4184</v>
       </c>
     </row>
     <row r="1126" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1126" t="s" s="4">
-        <v>4184</v>
+        <v>4185</v>
       </c>
       <c r="B1126" t="s" s="4">
-        <v>4145</v>
+        <v>4142</v>
       </c>
       <c r="C1126" t="s" s="4">
-        <v>4185</v>
+        <v>4186</v>
       </c>
       <c r="D1126" t="s" s="4">
-        <v>4186</v>
+        <v>4187</v>
       </c>
       <c r="E1126" t="s" s="4">
-        <v>4187</v>
+        <v>4188</v>
       </c>
     </row>
     <row r="1127" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1127" t="s" s="4">
-        <v>4188</v>
+        <v>4189</v>
       </c>
       <c r="B1127" t="s" s="4">
-        <v>4145</v>
+        <v>4142</v>
       </c>
       <c r="C1127" t="s" s="4">
-        <v>4189</v>
+        <v>4190</v>
       </c>
       <c r="D1127" t="s" s="4">
-        <v>4190</v>
+        <v>4191</v>
       </c>
       <c r="E1127" t="s" s="4">
-        <v>4191</v>
+        <v>4192</v>
       </c>
     </row>
     <row r="1128" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1128" t="s" s="4">
-        <v>4192</v>
+        <v>4193</v>
       </c>
       <c r="B1128" t="s" s="4">
-        <v>4145</v>
+        <v>4142</v>
       </c>
       <c r="C1128" t="s" s="4">
-        <v>4193</v>
+        <v>4194</v>
       </c>
       <c r="D1128" t="s" s="4">
-        <v>4194</v>
+        <v>4195</v>
       </c>
       <c r="E1128" t="s" s="4">
-        <v>4195</v>
+        <v>4196</v>
       </c>
     </row>
     <row r="1129" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1129" t="s" s="4">
-        <v>4196</v>
+        <v>4197</v>
       </c>
       <c r="B1129" t="s" s="4">
-        <v>4145</v>
+        <v>4142</v>
       </c>
       <c r="C1129" t="s" s="4">
-        <v>4197</v>
+        <v>4198</v>
       </c>
       <c r="D1129" t="s" s="4">
-        <v>4198</v>
+        <v>4199</v>
       </c>
       <c r="E1129" t="s" s="4">
-        <v>4199</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="1130" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1130" t="s" s="4">
-        <v>4200</v>
+        <v>4201</v>
       </c>
       <c r="B1130" t="s" s="4">
-        <v>4145</v>
+        <v>4142</v>
       </c>
       <c r="C1130" t="s" s="4">
-        <v>4201</v>
+        <v>4202</v>
       </c>
       <c r="D1130" t="s" s="4">
-        <v>4202</v>
+        <v>4203</v>
       </c>
       <c r="E1130" t="s" s="4">
-        <v>4203</v>
+        <v>4204</v>
       </c>
     </row>
     <row r="1131" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1131" t="s" s="4">
-        <v>4204</v>
+        <v>4205</v>
       </c>
       <c r="B1131" t="s" s="4">
-        <v>4145</v>
+        <v>4142</v>
       </c>
       <c r="C1131" t="s" s="4">
-        <v>4205</v>
+        <v>4206</v>
       </c>
       <c r="D1131" t="s" s="4">
-        <v>4206</v>
+        <v>4207</v>
       </c>
       <c r="E1131" t="s" s="4">
-        <v>4207</v>
+        <v>4208</v>
       </c>
     </row>
     <row r="1132" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1132" t="s" s="4">
-        <v>4208</v>
+        <v>4209</v>
       </c>
       <c r="B1132" t="s" s="4">
-        <v>4145</v>
+        <v>4142</v>
       </c>
       <c r="C1132" t="s" s="4">
-        <v>4209</v>
+        <v>4210</v>
       </c>
       <c r="D1132" t="s" s="4">
-        <v>4210</v>
+        <v>4211</v>
       </c>
       <c r="E1132" t="s" s="4">
-        <v>4211</v>
+        <v>4212</v>
       </c>
     </row>
     <row r="1133" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1133" t="s" s="4">
-        <v>4212</v>
+        <v>4213</v>
       </c>
       <c r="B1133" t="s" s="4">
-        <v>4145</v>
+        <v>4142</v>
       </c>
       <c r="C1133" t="s" s="4">
-        <v>4213</v>
+        <v>4214</v>
       </c>
       <c r="D1133" t="s" s="4">
-        <v>4214</v>
+        <v>4215</v>
       </c>
       <c r="E1133" t="s" s="4">
-        <v>4215</v>
+        <v>4216</v>
       </c>
     </row>
     <row r="1134" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1134" t="s" s="4">
-        <v>4216</v>
+        <v>4217</v>
       </c>
       <c r="B1134" t="s" s="4">
-        <v>4145</v>
+        <v>4142</v>
       </c>
       <c r="C1134" t="s" s="4">
-        <v>4217</v>
+        <v>4218</v>
       </c>
       <c r="D1134" t="s" s="4">
-        <v>4218</v>
+        <v>4219</v>
       </c>
       <c r="E1134" t="s" s="4">
-        <v>4219</v>
+        <v>4220</v>
       </c>
     </row>
     <row r="1135" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1135" t="s" s="4">
-        <v>4220</v>
+        <v>4221</v>
       </c>
       <c r="B1135" t="s" s="4">
-        <v>4145</v>
+        <v>4142</v>
       </c>
       <c r="C1135" t="s" s="4">
-        <v>4221</v>
+        <v>4222</v>
       </c>
       <c r="D1135" t="s" s="4">
-        <v>4222</v>
+        <v>4223</v>
       </c>
       <c r="E1135" t="s" s="4">
-        <v>4223</v>
+        <v>4224</v>
       </c>
     </row>
     <row r="1136" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1136" t="s" s="4">
-        <v>4224</v>
+        <v>4225</v>
       </c>
       <c r="B1136" t="s" s="4">
-        <v>4145</v>
+        <v>4142</v>
       </c>
       <c r="C1136" t="s" s="4">
-        <v>4225</v>
+        <v>4226</v>
       </c>
       <c r="D1136" t="s" s="4">
-        <v>4226</v>
+        <v>4227</v>
       </c>
       <c r="E1136" t="s" s="4">
-        <v>4227</v>
+        <v>4228</v>
       </c>
     </row>
     <row r="1137" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1137" t="s" s="4">
-        <v>4228</v>
+        <v>4229</v>
       </c>
       <c r="B1137" t="s" s="4">
-        <v>4145</v>
+        <v>4142</v>
       </c>
       <c r="C1137" t="s" s="4">
-        <v>4229</v>
+        <v>4230</v>
       </c>
       <c r="D1137" t="s" s="4">
-        <v>4230</v>
+        <v>4231</v>
       </c>
       <c r="E1137" t="s" s="4">
-        <v>4231</v>
+        <v>4232</v>
       </c>
     </row>
     <row r="1138" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1138" t="s" s="4">
-        <v>4232</v>
+        <v>4233</v>
       </c>
       <c r="B1138" t="s" s="4">
-        <v>4145</v>
+        <v>4142</v>
       </c>
       <c r="C1138" t="s" s="4">
-        <v>4233</v>
+        <v>4234</v>
       </c>
       <c r="D1138" t="s" s="4">
-        <v>4234</v>
+        <v>4235</v>
       </c>
       <c r="E1138" t="s" s="4">
-        <v>4235</v>
+        <v>4236</v>
       </c>
     </row>
     <row r="1139" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1139" t="s" s="4">
-        <v>4236</v>
+        <v>4237</v>
       </c>
       <c r="B1139" t="s" s="4">
-        <v>4145</v>
+        <v>4142</v>
       </c>
       <c r="C1139" t="s" s="4">
-        <v>4237</v>
+        <v>4238</v>
       </c>
       <c r="D1139" t="s" s="4">
-        <v>4238</v>
+        <v>4239</v>
       </c>
       <c r="E1139" t="s" s="4">
-        <v>4239</v>
+        <v>4240</v>
       </c>
     </row>
     <row r="1140" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1140" t="s" s="4">
-        <v>4240</v>
+        <v>4241</v>
       </c>
       <c r="B1140" t="s" s="4">
-        <v>4145</v>
+        <v>4142</v>
       </c>
       <c r="C1140" t="s" s="4">
-        <v>4241</v>
+        <v>4242</v>
       </c>
       <c r="D1140" t="s" s="4">
-        <v>4242</v>
+        <v>4243</v>
       </c>
       <c r="E1140" t="s" s="4">
-        <v>4243</v>
+        <v>4244</v>
       </c>
     </row>
     <row r="1141" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1141" t="s" s="4">
-        <v>4244</v>
+        <v>4245</v>
       </c>
       <c r="B1141" t="s" s="4">
-        <v>4145</v>
+        <v>4142</v>
       </c>
       <c r="C1141" t="s" s="4">
-        <v>4245</v>
+        <v>4246</v>
       </c>
       <c r="D1141" t="s" s="4">
-        <v>4246</v>
+        <v>4247</v>
       </c>
       <c r="E1141" t="s" s="4">
-        <v>4247</v>
+        <v>4248</v>
       </c>
     </row>
     <row r="1142" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1142" t="s" s="4">
-        <v>4248</v>
+        <v>4249</v>
       </c>
       <c r="B1142" t="s" s="4">
-        <v>4145</v>
+        <v>4142</v>
       </c>
       <c r="C1142" t="s" s="4">
-        <v>4249</v>
+        <v>4250</v>
       </c>
       <c r="D1142" t="s" s="4">
-        <v>4250</v>
+        <v>4251</v>
       </c>
       <c r="E1142" t="s" s="4">
-        <v>4251</v>
+        <v>4252</v>
       </c>
     </row>
     <row r="1143" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1143" t="s" s="4">
-        <v>4252</v>
+        <v>4253</v>
       </c>
       <c r="B1143" t="s" s="4">
-        <v>4145</v>
+        <v>4142</v>
       </c>
       <c r="C1143" t="s" s="4">
-        <v>4253</v>
+        <v>4254</v>
       </c>
       <c r="D1143" t="s" s="4">
-        <v>4254</v>
+        <v>4255</v>
       </c>
       <c r="E1143" t="s" s="4">
-        <v>4255</v>
+        <v>4256</v>
       </c>
     </row>
     <row r="1144" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1144" t="s" s="4">
-        <v>4256</v>
+        <v>4257</v>
       </c>
       <c r="B1144" t="s" s="4">
-        <v>4145</v>
+        <v>4142</v>
       </c>
       <c r="C1144" t="s" s="4">
-        <v>4257</v>
+        <v>4258</v>
       </c>
       <c r="D1144" t="s" s="4">
-        <v>4258</v>
+        <v>4259</v>
       </c>
       <c r="E1144" t="s" s="4">
-        <v>4259</v>
+        <v>4260</v>
       </c>
     </row>
     <row r="1145" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1145" t="s" s="4">
-        <v>4260</v>
+        <v>4261</v>
       </c>
       <c r="B1145" t="s" s="4">
-        <v>4145</v>
+        <v>4142</v>
       </c>
       <c r="C1145" t="s" s="4">
-        <v>4261</v>
+        <v>4262</v>
       </c>
       <c r="D1145" t="s" s="4">
-        <v>4262</v>
+        <v>4263</v>
       </c>
       <c r="E1145" t="s" s="4">
-        <v>4263</v>
+        <v>4264</v>
       </c>
     </row>
     <row r="1146" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1146" t="s" s="4">
-        <v>4264</v>
+        <v>4265</v>
       </c>
       <c r="B1146" t="s" s="4">
-        <v>4145</v>
+        <v>4142</v>
       </c>
       <c r="C1146" t="s" s="4">
-        <v>4265</v>
+        <v>4266</v>
       </c>
       <c r="D1146" t="s" s="4">
-        <v>4266</v>
+        <v>4267</v>
       </c>
       <c r="E1146" t="s" s="4">
-        <v>4267</v>
+        <v>4268</v>
       </c>
     </row>
     <row r="1147" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1147" t="s" s="4">
-        <v>4268</v>
+        <v>4269</v>
       </c>
       <c r="B1147" t="s" s="4">
-        <v>4145</v>
+        <v>4142</v>
       </c>
       <c r="C1147" t="s" s="4">
-        <v>4269</v>
+        <v>4270</v>
       </c>
       <c r="D1147" t="s" s="4">
-        <v>4270</v>
+        <v>4271</v>
       </c>
       <c r="E1147" t="s" s="4">
-        <v>4271</v>
+        <v>4272</v>
       </c>
     </row>
     <row r="1148" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1148" t="s" s="4">
-        <v>4272</v>
+        <v>4273</v>
       </c>
       <c r="B1148" t="s" s="4">
-        <v>4145</v>
+        <v>4142</v>
       </c>
       <c r="C1148" t="s" s="4">
-        <v>4273</v>
+        <v>4274</v>
       </c>
       <c r="D1148" t="s" s="4">
-        <v>4274</v>
+        <v>4275</v>
       </c>
       <c r="E1148" t="s" s="4">
-        <v>4275</v>
+        <v>4276</v>
       </c>
     </row>
     <row r="1149" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1149" t="s" s="4">
-        <v>4276</v>
+        <v>4277</v>
       </c>
       <c r="B1149" t="s" s="4">
-        <v>4145</v>
+        <v>4278</v>
       </c>
       <c r="C1149" t="s" s="4">
-        <v>4277</v>
+        <v>4279</v>
       </c>
       <c r="D1149" t="s" s="4">
-        <v>4278</v>
+        <v>4279</v>
       </c>
       <c r="E1149" t="s" s="4">
-        <v>4279</v>
+        <v>4280</v>
       </c>
     </row>
     <row r="1150" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1150" t="s" s="4">
-        <v>4280</v>
+        <v>4281</v>
       </c>
       <c r="B1150" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1150" t="s" s="4">
         <v>4282</v>
@@ -36188,7 +36179,7 @@
         <v>4284</v>
       </c>
       <c r="B1151" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1151" t="s" s="4">
         <v>4285</v>
@@ -36205,7 +36196,7 @@
         <v>4287</v>
       </c>
       <c r="B1152" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1152" t="s" s="4">
         <v>4288</v>
@@ -36222,7 +36213,7 @@
         <v>4290</v>
       </c>
       <c r="B1153" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1153" t="s" s="4">
         <v>4291</v>
@@ -36239,7 +36230,7 @@
         <v>4293</v>
       </c>
       <c r="B1154" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1154" t="s" s="4">
         <v>4294</v>
@@ -36256,7 +36247,7 @@
         <v>4296</v>
       </c>
       <c r="B1155" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1155" t="s" s="4">
         <v>4297</v>
@@ -36273,7 +36264,7 @@
         <v>4299</v>
       </c>
       <c r="B1156" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1156" t="s" s="4">
         <v>4300</v>
@@ -36290,7 +36281,7 @@
         <v>4302</v>
       </c>
       <c r="B1157" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1157" t="s" s="4">
         <v>4303</v>
@@ -36307,7 +36298,7 @@
         <v>4305</v>
       </c>
       <c r="B1158" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1158" t="s" s="4">
         <v>4306</v>
@@ -36324,7 +36315,7 @@
         <v>4308</v>
       </c>
       <c r="B1159" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1159" t="s" s="4">
         <v>4309</v>
@@ -36341,27 +36332,27 @@
         <v>4311</v>
       </c>
       <c r="B1160" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1160" t="s" s="4">
         <v>4312</v>
       </c>
       <c r="D1160" t="s" s="4">
-        <v>4312</v>
+        <v>4313</v>
       </c>
       <c r="E1160" t="s" s="4">
-        <v>4313</v>
+        <v>4314</v>
       </c>
     </row>
     <row r="1161" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1161" t="s" s="4">
-        <v>4314</v>
+        <v>4315</v>
       </c>
       <c r="B1161" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1161" t="s" s="4">
-        <v>4315</v>
+        <v>4316</v>
       </c>
       <c r="D1161" t="s" s="4">
         <v>4316</v>
@@ -36375,7 +36366,7 @@
         <v>4318</v>
       </c>
       <c r="B1162" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1162" t="s" s="4">
         <v>4319</v>
@@ -36392,7 +36383,7 @@
         <v>4321</v>
       </c>
       <c r="B1163" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1163" t="s" s="4">
         <v>4322</v>
@@ -36409,7 +36400,7 @@
         <v>4324</v>
       </c>
       <c r="B1164" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1164" t="s" s="4">
         <v>4325</v>
@@ -36426,7 +36417,7 @@
         <v>4327</v>
       </c>
       <c r="B1165" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1165" t="s" s="4">
         <v>4328</v>
@@ -36443,7 +36434,7 @@
         <v>4330</v>
       </c>
       <c r="B1166" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1166" t="s" s="4">
         <v>4331</v>
@@ -36460,7 +36451,7 @@
         <v>4333</v>
       </c>
       <c r="B1167" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1167" t="s" s="4">
         <v>4334</v>
@@ -36477,7 +36468,7 @@
         <v>4336</v>
       </c>
       <c r="B1168" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1168" t="s" s="4">
         <v>4337</v>
@@ -36494,7 +36485,7 @@
         <v>4339</v>
       </c>
       <c r="B1169" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1169" t="s" s="4">
         <v>4340</v>
@@ -36511,61 +36502,61 @@
         <v>4342</v>
       </c>
       <c r="B1170" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1170" t="s" s="4">
         <v>4343</v>
       </c>
       <c r="D1170" t="s" s="4">
-        <v>4343</v>
+        <v>4344</v>
       </c>
       <c r="E1170" t="s" s="4">
-        <v>4344</v>
+        <v>4345</v>
       </c>
     </row>
     <row r="1171" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1171" t="s" s="4">
-        <v>4345</v>
+        <v>4346</v>
       </c>
       <c r="B1171" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1171" t="s" s="4">
-        <v>4346</v>
+        <v>4347</v>
       </c>
       <c r="D1171" t="s" s="4">
-        <v>4347</v>
+        <v>4348</v>
       </c>
       <c r="E1171" t="s" s="4">
-        <v>4348</v>
+        <v>4349</v>
       </c>
     </row>
     <row r="1172" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1172" t="s" s="4">
-        <v>4349</v>
+        <v>4350</v>
       </c>
       <c r="B1172" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1172" t="s" s="4">
-        <v>4350</v>
+        <v>4351</v>
       </c>
       <c r="D1172" t="s" s="4">
-        <v>4351</v>
+        <v>4352</v>
       </c>
       <c r="E1172" t="s" s="4">
-        <v>4352</v>
+        <v>4353</v>
       </c>
     </row>
     <row r="1173" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1173" t="s" s="4">
-        <v>4353</v>
+        <v>4354</v>
       </c>
       <c r="B1173" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1173" t="s" s="4">
-        <v>4354</v>
+        <v>4355</v>
       </c>
       <c r="D1173" t="s" s="4">
         <v>4355</v>
@@ -36579,7 +36570,7 @@
         <v>4357</v>
       </c>
       <c r="B1174" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1174" t="s" s="4">
         <v>4358</v>
@@ -36596,7 +36587,7 @@
         <v>4360</v>
       </c>
       <c r="B1175" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1175" t="s" s="4">
         <v>4361</v>
@@ -36613,44 +36604,44 @@
         <v>4363</v>
       </c>
       <c r="B1176" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1176" t="s" s="4">
         <v>4364</v>
       </c>
       <c r="D1176" t="s" s="4">
-        <v>4364</v>
+        <v>4365</v>
       </c>
       <c r="E1176" t="s" s="4">
-        <v>4365</v>
+        <v>4366</v>
       </c>
     </row>
     <row r="1177" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1177" t="s" s="4">
-        <v>4366</v>
+        <v>4367</v>
       </c>
       <c r="B1177" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1177" t="s" s="4">
-        <v>4367</v>
+        <v>4368</v>
       </c>
       <c r="D1177" t="s" s="4">
-        <v>4368</v>
+        <v>4369</v>
       </c>
       <c r="E1177" t="s" s="4">
-        <v>4369</v>
+        <v>4370</v>
       </c>
     </row>
     <row r="1178" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1178" t="s" s="4">
-        <v>4370</v>
+        <v>4371</v>
       </c>
       <c r="B1178" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1178" t="s" s="4">
-        <v>4371</v>
+        <v>4372</v>
       </c>
       <c r="D1178" t="s" s="4">
         <v>4372</v>
@@ -36664,27 +36655,27 @@
         <v>4374</v>
       </c>
       <c r="B1179" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1179" t="s" s="4">
         <v>4375</v>
       </c>
       <c r="D1179" t="s" s="4">
-        <v>4375</v>
+        <v>4376</v>
       </c>
       <c r="E1179" t="s" s="4">
-        <v>4376</v>
+        <v>4377</v>
       </c>
     </row>
     <row r="1180" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1180" t="s" s="4">
-        <v>4377</v>
+        <v>4378</v>
       </c>
       <c r="B1180" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1180" t="s" s="4">
-        <v>4378</v>
+        <v>4379</v>
       </c>
       <c r="D1180" t="s" s="4">
         <v>4379</v>
@@ -36698,7 +36689,7 @@
         <v>4381</v>
       </c>
       <c r="B1181" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1181" t="s" s="4">
         <v>4382</v>
@@ -36715,27 +36706,27 @@
         <v>4384</v>
       </c>
       <c r="B1182" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1182" t="s" s="4">
         <v>4385</v>
       </c>
       <c r="D1182" t="s" s="4">
-        <v>4385</v>
+        <v>4386</v>
       </c>
       <c r="E1182" t="s" s="4">
-        <v>4386</v>
+        <v>4387</v>
       </c>
     </row>
     <row r="1183" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1183" t="s" s="4">
-        <v>4387</v>
+        <v>4388</v>
       </c>
       <c r="B1183" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1183" t="s" s="4">
-        <v>4388</v>
+        <v>4389</v>
       </c>
       <c r="D1183" t="s" s="4">
         <v>4389</v>
@@ -36749,44 +36740,44 @@
         <v>4391</v>
       </c>
       <c r="B1184" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1184" t="s" s="4">
         <v>4392</v>
       </c>
       <c r="D1184" t="s" s="4">
-        <v>4392</v>
+        <v>4393</v>
       </c>
       <c r="E1184" t="s" s="4">
-        <v>4393</v>
+        <v>4394</v>
       </c>
     </row>
     <row r="1185" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1185" t="s" s="4">
-        <v>4394</v>
+        <v>4395</v>
       </c>
       <c r="B1185" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1185" t="s" s="4">
-        <v>4395</v>
+        <v>4396</v>
       </c>
       <c r="D1185" t="s" s="4">
-        <v>4396</v>
+        <v>4397</v>
       </c>
       <c r="E1185" t="s" s="4">
-        <v>4397</v>
+        <v>4398</v>
       </c>
     </row>
     <row r="1186" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1186" t="s" s="4">
-        <v>4398</v>
+        <v>4399</v>
       </c>
       <c r="B1186" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1186" t="s" s="4">
-        <v>4399</v>
+        <v>4400</v>
       </c>
       <c r="D1186" t="s" s="4">
         <v>4400</v>
@@ -36800,27 +36791,27 @@
         <v>4402</v>
       </c>
       <c r="B1187" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1187" t="s" s="4">
         <v>4403</v>
       </c>
       <c r="D1187" t="s" s="4">
-        <v>4403</v>
+        <v>4404</v>
       </c>
       <c r="E1187" t="s" s="4">
-        <v>4404</v>
+        <v>4405</v>
       </c>
     </row>
     <row r="1188" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1188" t="s" s="4">
-        <v>4405</v>
+        <v>4406</v>
       </c>
       <c r="B1188" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1188" t="s" s="4">
-        <v>4406</v>
+        <v>4407</v>
       </c>
       <c r="D1188" t="s" s="4">
         <v>4407</v>
@@ -36834,7 +36825,7 @@
         <v>4409</v>
       </c>
       <c r="B1189" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1189" t="s" s="4">
         <v>4410</v>
@@ -36851,7 +36842,7 @@
         <v>4412</v>
       </c>
       <c r="B1190" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1190" t="s" s="4">
         <v>4413</v>
@@ -36868,44 +36859,44 @@
         <v>4415</v>
       </c>
       <c r="B1191" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1191" t="s" s="4">
         <v>4416</v>
       </c>
       <c r="D1191" t="s" s="4">
-        <v>4416</v>
+        <v>4417</v>
       </c>
       <c r="E1191" t="s" s="4">
-        <v>4417</v>
+        <v>4418</v>
       </c>
     </row>
     <row r="1192" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1192" t="s" s="4">
-        <v>4418</v>
+        <v>4419</v>
       </c>
       <c r="B1192" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1192" t="s" s="4">
-        <v>4419</v>
+        <v>4420</v>
       </c>
       <c r="D1192" t="s" s="4">
-        <v>4420</v>
+        <v>4421</v>
       </c>
       <c r="E1192" t="s" s="4">
-        <v>4421</v>
+        <v>4422</v>
       </c>
     </row>
     <row r="1193" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1193" t="s" s="4">
-        <v>4422</v>
+        <v>4423</v>
       </c>
       <c r="B1193" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1193" t="s" s="4">
-        <v>4423</v>
+        <v>4424</v>
       </c>
       <c r="D1193" t="s" s="4">
         <v>4424</v>
@@ -36919,7 +36910,7 @@
         <v>4426</v>
       </c>
       <c r="B1194" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1194" t="s" s="4">
         <v>4427</v>
@@ -36936,44 +36927,44 @@
         <v>4429</v>
       </c>
       <c r="B1195" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1195" t="s" s="4">
         <v>4430</v>
       </c>
       <c r="D1195" t="s" s="4">
-        <v>4430</v>
+        <v>4431</v>
       </c>
       <c r="E1195" t="s" s="4">
-        <v>4431</v>
+        <v>4432</v>
       </c>
     </row>
     <row r="1196" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1196" t="s" s="4">
-        <v>4432</v>
+        <v>4433</v>
       </c>
       <c r="B1196" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1196" t="s" s="4">
-        <v>4433</v>
+        <v>4434</v>
       </c>
       <c r="D1196" t="s" s="4">
-        <v>4434</v>
+        <v>4435</v>
       </c>
       <c r="E1196" t="s" s="4">
-        <v>4435</v>
+        <v>4436</v>
       </c>
     </row>
     <row r="1197" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1197" t="s" s="4">
-        <v>4436</v>
+        <v>4437</v>
       </c>
       <c r="B1197" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1197" t="s" s="4">
-        <v>4437</v>
+        <v>4438</v>
       </c>
       <c r="D1197" t="s" s="4">
         <v>4438</v>
@@ -36987,44 +36978,44 @@
         <v>4440</v>
       </c>
       <c r="B1198" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1198" t="s" s="4">
         <v>4441</v>
       </c>
       <c r="D1198" t="s" s="4">
-        <v>4441</v>
+        <v>4442</v>
       </c>
       <c r="E1198" t="s" s="4">
-        <v>4442</v>
+        <v>4443</v>
       </c>
     </row>
     <row r="1199" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1199" t="s" s="4">
-        <v>4443</v>
+        <v>4444</v>
       </c>
       <c r="B1199" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1199" t="s" s="4">
-        <v>4444</v>
+        <v>4445</v>
       </c>
       <c r="D1199" t="s" s="4">
-        <v>4445</v>
+        <v>4446</v>
       </c>
       <c r="E1199" t="s" s="4">
-        <v>4446</v>
+        <v>4447</v>
       </c>
     </row>
     <row r="1200" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1200" t="s" s="4">
-        <v>4447</v>
+        <v>4448</v>
       </c>
       <c r="B1200" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1200" t="s" s="4">
-        <v>4448</v>
+        <v>4449</v>
       </c>
       <c r="D1200" t="s" s="4">
         <v>4449</v>
@@ -37038,7 +37029,7 @@
         <v>4451</v>
       </c>
       <c r="B1201" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1201" t="s" s="4">
         <v>4452</v>
@@ -37055,27 +37046,27 @@
         <v>4454</v>
       </c>
       <c r="B1202" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1202" t="s" s="4">
         <v>4455</v>
       </c>
       <c r="D1202" t="s" s="4">
-        <v>4455</v>
+        <v>4456</v>
       </c>
       <c r="E1202" t="s" s="4">
-        <v>4456</v>
+        <v>4457</v>
       </c>
     </row>
     <row r="1203" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1203" t="s" s="4">
-        <v>4457</v>
+        <v>4458</v>
       </c>
       <c r="B1203" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1203" t="s" s="4">
-        <v>4458</v>
+        <v>4459</v>
       </c>
       <c r="D1203" t="s" s="4">
         <v>4459</v>
@@ -37089,7 +37080,7 @@
         <v>4461</v>
       </c>
       <c r="B1204" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1204" t="s" s="4">
         <v>4462</v>
@@ -37106,61 +37097,61 @@
         <v>4464</v>
       </c>
       <c r="B1205" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1205" t="s" s="4">
         <v>4465</v>
       </c>
       <c r="D1205" t="s" s="4">
-        <v>4465</v>
+        <v>4466</v>
       </c>
       <c r="E1205" t="s" s="4">
-        <v>4466</v>
+        <v>4467</v>
       </c>
     </row>
     <row r="1206" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1206" t="s" s="4">
-        <v>4467</v>
+        <v>4468</v>
       </c>
       <c r="B1206" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1206" t="s" s="4">
-        <v>4468</v>
+        <v>4469</v>
       </c>
       <c r="D1206" t="s" s="4">
-        <v>4469</v>
+        <v>4470</v>
       </c>
       <c r="E1206" t="s" s="4">
-        <v>4470</v>
+        <v>4471</v>
       </c>
     </row>
     <row r="1207" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1207" t="s" s="4">
-        <v>4471</v>
+        <v>4472</v>
       </c>
       <c r="B1207" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1207" t="s" s="4">
-        <v>4472</v>
+        <v>4473</v>
       </c>
       <c r="D1207" t="s" s="4">
-        <v>4473</v>
+        <v>4474</v>
       </c>
       <c r="E1207" t="s" s="4">
-        <v>4474</v>
+        <v>4475</v>
       </c>
     </row>
     <row r="1208" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1208" t="s" s="4">
-        <v>4475</v>
+        <v>4476</v>
       </c>
       <c r="B1208" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1208" t="s" s="4">
-        <v>4476</v>
+        <v>4477</v>
       </c>
       <c r="D1208" t="s" s="4">
         <v>4477</v>
@@ -37174,7 +37165,7 @@
         <v>4479</v>
       </c>
       <c r="B1209" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1209" t="s" s="4">
         <v>4480</v>
@@ -37191,7 +37182,7 @@
         <v>4482</v>
       </c>
       <c r="B1210" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1210" t="s" s="4">
         <v>4483</v>
@@ -37208,27 +37199,27 @@
         <v>4485</v>
       </c>
       <c r="B1211" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1211" t="s" s="4">
         <v>4486</v>
       </c>
       <c r="D1211" t="s" s="4">
-        <v>4486</v>
+        <v>4487</v>
       </c>
       <c r="E1211" t="s" s="4">
-        <v>4487</v>
+        <v>4488</v>
       </c>
     </row>
     <row r="1212" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1212" t="s" s="4">
-        <v>4488</v>
+        <v>4489</v>
       </c>
       <c r="B1212" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1212" t="s" s="4">
-        <v>4489</v>
+        <v>4490</v>
       </c>
       <c r="D1212" t="s" s="4">
         <v>4490</v>
@@ -37242,78 +37233,78 @@
         <v>4492</v>
       </c>
       <c r="B1213" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1213" t="s" s="4">
         <v>4493</v>
       </c>
       <c r="D1213" t="s" s="4">
-        <v>4493</v>
+        <v>4494</v>
       </c>
       <c r="E1213" t="s" s="4">
-        <v>4494</v>
+        <v>4495</v>
       </c>
     </row>
     <row r="1214" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1214" t="s" s="4">
-        <v>4495</v>
+        <v>4496</v>
       </c>
       <c r="B1214" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1214" t="s" s="4">
-        <v>4496</v>
+        <v>4497</v>
       </c>
       <c r="D1214" t="s" s="4">
-        <v>4497</v>
+        <v>4498</v>
       </c>
       <c r="E1214" t="s" s="4">
-        <v>4498</v>
+        <v>4499</v>
       </c>
     </row>
     <row r="1215" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1215" t="s" s="4">
-        <v>4499</v>
+        <v>4500</v>
       </c>
       <c r="B1215" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1215" t="s" s="4">
-        <v>4500</v>
+        <v>4501</v>
       </c>
       <c r="D1215" t="s" s="4">
-        <v>4501</v>
+        <v>4502</v>
       </c>
       <c r="E1215" t="s" s="4">
-        <v>4502</v>
+        <v>4503</v>
       </c>
     </row>
     <row r="1216" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1216" t="s" s="4">
-        <v>4503</v>
+        <v>4504</v>
       </c>
       <c r="B1216" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1216" t="s" s="4">
-        <v>4504</v>
+        <v>4505</v>
       </c>
       <c r="D1216" t="s" s="4">
-        <v>4505</v>
+        <v>4506</v>
       </c>
       <c r="E1216" t="s" s="4">
-        <v>4506</v>
+        <v>4507</v>
       </c>
     </row>
     <row r="1217" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1217" t="s" s="4">
-        <v>4507</v>
+        <v>4508</v>
       </c>
       <c r="B1217" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1217" t="s" s="4">
-        <v>4508</v>
+        <v>4509</v>
       </c>
       <c r="D1217" t="s" s="4">
         <v>4509</v>
@@ -37327,27 +37318,27 @@
         <v>4511</v>
       </c>
       <c r="B1218" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1218" t="s" s="4">
         <v>4512</v>
       </c>
       <c r="D1218" t="s" s="4">
-        <v>4512</v>
+        <v>4513</v>
       </c>
       <c r="E1218" t="s" s="4">
-        <v>4513</v>
+        <v>4514</v>
       </c>
     </row>
     <row r="1219" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1219" t="s" s="4">
-        <v>4514</v>
+        <v>4515</v>
       </c>
       <c r="B1219" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1219" t="s" s="4">
-        <v>4515</v>
+        <v>4516</v>
       </c>
       <c r="D1219" t="s" s="4">
         <v>4516</v>
@@ -37361,7 +37352,7 @@
         <v>4518</v>
       </c>
       <c r="B1220" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1220" t="s" s="4">
         <v>4519</v>
@@ -37378,7 +37369,7 @@
         <v>4521</v>
       </c>
       <c r="B1221" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1221" t="s" s="4">
         <v>4522</v>
@@ -37395,27 +37386,27 @@
         <v>4524</v>
       </c>
       <c r="B1222" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1222" t="s" s="4">
         <v>4525</v>
       </c>
       <c r="D1222" t="s" s="4">
-        <v>4525</v>
+        <v>4526</v>
       </c>
       <c r="E1222" t="s" s="4">
-        <v>4526</v>
+        <v>4527</v>
       </c>
     </row>
     <row r="1223" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1223" t="s" s="4">
-        <v>4527</v>
+        <v>4528</v>
       </c>
       <c r="B1223" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1223" t="s" s="4">
-        <v>4528</v>
+        <v>4529</v>
       </c>
       <c r="D1223" t="s" s="4">
         <v>4529</v>
@@ -37429,44 +37420,44 @@
         <v>4531</v>
       </c>
       <c r="B1224" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1224" t="s" s="4">
         <v>4532</v>
       </c>
       <c r="D1224" t="s" s="4">
-        <v>4532</v>
+        <v>4533</v>
       </c>
       <c r="E1224" t="s" s="4">
-        <v>4533</v>
+        <v>4534</v>
       </c>
     </row>
     <row r="1225" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1225" t="s" s="4">
-        <v>4534</v>
+        <v>4535</v>
       </c>
       <c r="B1225" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1225" t="s" s="4">
-        <v>4535</v>
+        <v>4536</v>
       </c>
       <c r="D1225" t="s" s="4">
-        <v>4536</v>
+        <v>4537</v>
       </c>
       <c r="E1225" t="s" s="4">
-        <v>4537</v>
+        <v>4538</v>
       </c>
     </row>
     <row r="1226" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1226" t="s" s="4">
-        <v>4538</v>
+        <v>4539</v>
       </c>
       <c r="B1226" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1226" t="s" s="4">
-        <v>4539</v>
+        <v>4540</v>
       </c>
       <c r="D1226" t="s" s="4">
         <v>4540</v>
@@ -37480,78 +37471,78 @@
         <v>4542</v>
       </c>
       <c r="B1227" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1227" t="s" s="4">
         <v>4543</v>
       </c>
       <c r="D1227" t="s" s="4">
-        <v>4543</v>
+        <v>4544</v>
       </c>
       <c r="E1227" t="s" s="4">
-        <v>4544</v>
+        <v>4545</v>
       </c>
     </row>
     <row r="1228" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1228" t="s" s="4">
-        <v>4545</v>
+        <v>4546</v>
       </c>
       <c r="B1228" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1228" t="s" s="4">
-        <v>4546</v>
+        <v>4547</v>
       </c>
       <c r="D1228" t="s" s="4">
-        <v>4547</v>
+        <v>4548</v>
       </c>
       <c r="E1228" t="s" s="4">
-        <v>4548</v>
+        <v>4549</v>
       </c>
     </row>
     <row r="1229" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1229" t="s" s="4">
-        <v>4549</v>
+        <v>4550</v>
       </c>
       <c r="B1229" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1229" t="s" s="4">
-        <v>4550</v>
+        <v>4551</v>
       </c>
       <c r="D1229" t="s" s="4">
-        <v>4551</v>
+        <v>4552</v>
       </c>
       <c r="E1229" t="s" s="4">
-        <v>4552</v>
+        <v>4553</v>
       </c>
     </row>
     <row r="1230" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1230" t="s" s="4">
-        <v>4553</v>
+        <v>4554</v>
       </c>
       <c r="B1230" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1230" t="s" s="4">
-        <v>4554</v>
+        <v>4555</v>
       </c>
       <c r="D1230" t="s" s="4">
-        <v>4555</v>
+        <v>4556</v>
       </c>
       <c r="E1230" t="s" s="4">
-        <v>4556</v>
+        <v>4557</v>
       </c>
     </row>
     <row r="1231" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1231" t="s" s="4">
-        <v>4557</v>
+        <v>4558</v>
       </c>
       <c r="B1231" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1231" t="s" s="4">
-        <v>4558</v>
+        <v>4559</v>
       </c>
       <c r="D1231" t="s" s="4">
         <v>4559</v>
@@ -37565,44 +37556,44 @@
         <v>4561</v>
       </c>
       <c r="B1232" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1232" t="s" s="4">
         <v>4562</v>
       </c>
       <c r="D1232" t="s" s="4">
-        <v>4562</v>
+        <v>4563</v>
       </c>
       <c r="E1232" t="s" s="4">
-        <v>4563</v>
+        <v>4564</v>
       </c>
     </row>
     <row r="1233" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1233" t="s" s="4">
-        <v>4564</v>
+        <v>4565</v>
       </c>
       <c r="B1233" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1233" t="s" s="4">
-        <v>4565</v>
+        <v>4566</v>
       </c>
       <c r="D1233" t="s" s="4">
-        <v>4566</v>
+        <v>4567</v>
       </c>
       <c r="E1233" t="s" s="4">
-        <v>4567</v>
+        <v>4568</v>
       </c>
     </row>
     <row r="1234" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1234" t="s" s="4">
-        <v>4568</v>
+        <v>4569</v>
       </c>
       <c r="B1234" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1234" t="s" s="4">
-        <v>4569</v>
+        <v>4570</v>
       </c>
       <c r="D1234" t="s" s="4">
         <v>4570</v>
@@ -37616,27 +37607,27 @@
         <v>4572</v>
       </c>
       <c r="B1235" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1235" t="s" s="4">
         <v>4573</v>
       </c>
       <c r="D1235" t="s" s="4">
-        <v>4573</v>
+        <v>4574</v>
       </c>
       <c r="E1235" t="s" s="4">
-        <v>4574</v>
+        <v>4575</v>
       </c>
     </row>
     <row r="1236" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1236" t="s" s="4">
-        <v>4575</v>
+        <v>4576</v>
       </c>
       <c r="B1236" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1236" t="s" s="4">
-        <v>4576</v>
+        <v>4577</v>
       </c>
       <c r="D1236" t="s" s="4">
         <v>4577</v>
@@ -37650,61 +37641,61 @@
         <v>4579</v>
       </c>
       <c r="B1237" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1237" t="s" s="4">
         <v>4580</v>
       </c>
       <c r="D1237" t="s" s="4">
-        <v>4580</v>
+        <v>4581</v>
       </c>
       <c r="E1237" t="s" s="4">
-        <v>4581</v>
+        <v>4582</v>
       </c>
     </row>
     <row r="1238" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1238" t="s" s="4">
-        <v>4582</v>
+        <v>4583</v>
       </c>
       <c r="B1238" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1238" t="s" s="4">
-        <v>4583</v>
+        <v>4584</v>
       </c>
       <c r="D1238" t="s" s="4">
-        <v>4584</v>
+        <v>4585</v>
       </c>
       <c r="E1238" t="s" s="4">
-        <v>4585</v>
+        <v>4586</v>
       </c>
     </row>
     <row r="1239" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1239" t="s" s="4">
-        <v>4586</v>
+        <v>4587</v>
       </c>
       <c r="B1239" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1239" t="s" s="4">
-        <v>4587</v>
+        <v>4588</v>
       </c>
       <c r="D1239" t="s" s="4">
-        <v>4588</v>
+        <v>4589</v>
       </c>
       <c r="E1239" t="s" s="4">
-        <v>4589</v>
+        <v>4590</v>
       </c>
     </row>
     <row r="1240" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1240" t="s" s="4">
-        <v>4590</v>
+        <v>4591</v>
       </c>
       <c r="B1240" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1240" t="s" s="4">
-        <v>4591</v>
+        <v>4592</v>
       </c>
       <c r="D1240" t="s" s="4">
         <v>4592</v>
@@ -37718,61 +37709,61 @@
         <v>4594</v>
       </c>
       <c r="B1241" t="s" s="4">
-        <v>4281</v>
+        <v>4278</v>
       </c>
       <c r="C1241" t="s" s="4">
         <v>4595</v>
       </c>
       <c r="D1241" t="s" s="4">
-        <v>4595</v>
+        <v>4596</v>
       </c>
       <c r="E1241" t="s" s="4">
-        <v>4596</v>
+        <v>4597</v>
       </c>
     </row>
     <row r="1242" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1242" t="s" s="4">
-        <v>4597</v>
+        <v>4598</v>
       </c>
       <c r="B1242" t="s" s="4">
-        <v>4281</v>
+        <v>4599</v>
       </c>
       <c r="C1242" t="s" s="4">
-        <v>4598</v>
+        <v>4600</v>
       </c>
       <c r="D1242" t="s" s="4">
-        <v>4599</v>
+        <v>4601</v>
       </c>
       <c r="E1242" t="s" s="4">
-        <v>4600</v>
+        <v>4602</v>
       </c>
     </row>
     <row r="1243" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1243" t="s" s="4">
-        <v>4601</v>
+        <v>4603</v>
       </c>
       <c r="B1243" t="s" s="4">
-        <v>4602</v>
+        <v>4599</v>
       </c>
       <c r="C1243" t="s" s="4">
-        <v>4603</v>
+        <v>4604</v>
       </c>
       <c r="D1243" t="s" s="4">
-        <v>4604</v>
+        <v>4605</v>
       </c>
       <c r="E1243" t="s" s="4">
-        <v>4605</v>
+        <v>4606</v>
       </c>
     </row>
     <row r="1244" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1244" t="s" s="4">
-        <v>4606</v>
+        <v>4607</v>
       </c>
       <c r="B1244" t="s" s="4">
-        <v>4602</v>
+        <v>4599</v>
       </c>
       <c r="C1244" t="s" s="4">
-        <v>4607</v>
+        <v>4608</v>
       </c>
       <c r="D1244" t="s" s="4">
         <v>4608</v>
@@ -37786,7 +37777,7 @@
         <v>4610</v>
       </c>
       <c r="B1245" t="s" s="4">
-        <v>4602</v>
+        <v>4599</v>
       </c>
       <c r="C1245" t="s" s="4">
         <v>4611</v>
@@ -37803,44 +37794,44 @@
         <v>4613</v>
       </c>
       <c r="B1246" t="s" s="4">
-        <v>4602</v>
+        <v>4599</v>
       </c>
       <c r="C1246" t="s" s="4">
         <v>4614</v>
       </c>
       <c r="D1246" t="s" s="4">
-        <v>4614</v>
+        <v>4615</v>
       </c>
       <c r="E1246" t="s" s="4">
-        <v>4615</v>
+        <v>4616</v>
       </c>
     </row>
     <row r="1247" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1247" t="s" s="4">
-        <v>4616</v>
+        <v>4617</v>
       </c>
       <c r="B1247" t="s" s="4">
-        <v>4602</v>
+        <v>4599</v>
       </c>
       <c r="C1247" t="s" s="4">
-        <v>4617</v>
+        <v>4618</v>
       </c>
       <c r="D1247" t="s" s="4">
-        <v>4618</v>
+        <v>4619</v>
       </c>
       <c r="E1247" t="s" s="4">
-        <v>4619</v>
+        <v>4620</v>
       </c>
     </row>
     <row r="1248" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1248" t="s" s="4">
-        <v>4620</v>
+        <v>4621</v>
       </c>
       <c r="B1248" t="s" s="4">
-        <v>4602</v>
+        <v>4599</v>
       </c>
       <c r="C1248" t="s" s="4">
-        <v>4621</v>
+        <v>4622</v>
       </c>
       <c r="D1248" t="s" s="4">
         <v>4622</v>
@@ -37854,7 +37845,7 @@
         <v>4624</v>
       </c>
       <c r="B1249" t="s" s="4">
-        <v>4602</v>
+        <v>4599</v>
       </c>
       <c r="C1249" t="s" s="4">
         <v>4625</v>
@@ -37871,61 +37862,61 @@
         <v>4627</v>
       </c>
       <c r="B1250" t="s" s="4">
-        <v>4602</v>
+        <v>4599</v>
       </c>
       <c r="C1250" t="s" s="4">
         <v>4628</v>
       </c>
       <c r="D1250" t="s" s="4">
-        <v>4628</v>
+        <v>4629</v>
       </c>
       <c r="E1250" t="s" s="4">
-        <v>4629</v>
+        <v>4630</v>
       </c>
     </row>
     <row r="1251" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1251" t="s" s="4">
-        <v>4630</v>
+        <v>4631</v>
       </c>
       <c r="B1251" t="s" s="4">
-        <v>4602</v>
+        <v>4599</v>
       </c>
       <c r="C1251" t="s" s="4">
-        <v>4631</v>
+        <v>4632</v>
       </c>
       <c r="D1251" t="s" s="4">
-        <v>4632</v>
+        <v>4633</v>
       </c>
       <c r="E1251" t="s" s="4">
-        <v>4633</v>
+        <v>4634</v>
       </c>
     </row>
     <row r="1252" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1252" t="s" s="4">
-        <v>4634</v>
+        <v>4635</v>
       </c>
       <c r="B1252" t="s" s="4">
-        <v>4602</v>
+        <v>4599</v>
       </c>
       <c r="C1252" t="s" s="4">
-        <v>4635</v>
+        <v>4636</v>
       </c>
       <c r="D1252" t="s" s="4">
-        <v>4636</v>
+        <v>4637</v>
       </c>
       <c r="E1252" t="s" s="4">
-        <v>4637</v>
+        <v>4638</v>
       </c>
     </row>
     <row r="1253" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1253" t="s" s="4">
-        <v>4638</v>
+        <v>4639</v>
       </c>
       <c r="B1253" t="s" s="4">
-        <v>4602</v>
+        <v>4599</v>
       </c>
       <c r="C1253" t="s" s="4">
-        <v>4639</v>
+        <v>4640</v>
       </c>
       <c r="D1253" t="s" s="4">
         <v>4640</v>
@@ -37939,7 +37930,7 @@
         <v>4642</v>
       </c>
       <c r="B1254" t="s" s="4">
-        <v>4602</v>
+        <v>4599</v>
       </c>
       <c r="C1254" t="s" s="4">
         <v>4643</v>
@@ -37956,44 +37947,44 @@
         <v>4645</v>
       </c>
       <c r="B1255" t="s" s="4">
-        <v>4602</v>
+        <v>4599</v>
       </c>
       <c r="C1255" t="s" s="4">
         <v>4646</v>
       </c>
       <c r="D1255" t="s" s="4">
-        <v>4646</v>
+        <v>4647</v>
       </c>
       <c r="E1255" t="s" s="4">
-        <v>4647</v>
+        <v>4648</v>
       </c>
     </row>
     <row r="1256" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1256" t="s" s="4">
-        <v>4648</v>
+        <v>4649</v>
       </c>
       <c r="B1256" t="s" s="4">
-        <v>4602</v>
+        <v>4599</v>
       </c>
       <c r="C1256" t="s" s="4">
-        <v>4649</v>
+        <v>4650</v>
       </c>
       <c r="D1256" t="s" s="4">
-        <v>4650</v>
+        <v>4651</v>
       </c>
       <c r="E1256" t="s" s="4">
-        <v>4651</v>
+        <v>4652</v>
       </c>
     </row>
     <row r="1257" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1257" t="s" s="4">
-        <v>4652</v>
+        <v>4653</v>
       </c>
       <c r="B1257" t="s" s="4">
-        <v>4602</v>
+        <v>4599</v>
       </c>
       <c r="C1257" t="s" s="4">
-        <v>4653</v>
+        <v>4654</v>
       </c>
       <c r="D1257" t="s" s="4">
         <v>4654</v>
@@ -38007,61 +37998,61 @@
         <v>4656</v>
       </c>
       <c r="B1258" t="s" s="4">
-        <v>4602</v>
+        <v>4599</v>
       </c>
       <c r="C1258" t="s" s="4">
         <v>4657</v>
       </c>
       <c r="D1258" t="s" s="4">
-        <v>4657</v>
+        <v>4658</v>
       </c>
       <c r="E1258" t="s" s="4">
-        <v>4658</v>
+        <v>4659</v>
       </c>
     </row>
     <row r="1259" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1259" t="s" s="4">
-        <v>4659</v>
+        <v>4660</v>
       </c>
       <c r="B1259" t="s" s="4">
-        <v>4602</v>
+        <v>4599</v>
       </c>
       <c r="C1259" t="s" s="4">
-        <v>4660</v>
+        <v>4661</v>
       </c>
       <c r="D1259" t="s" s="4">
-        <v>4661</v>
+        <v>4662</v>
       </c>
       <c r="E1259" t="s" s="4">
-        <v>4662</v>
+        <v>4663</v>
       </c>
     </row>
     <row r="1260" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1260" t="s" s="4">
-        <v>4663</v>
+        <v>4664</v>
       </c>
       <c r="B1260" t="s" s="4">
-        <v>4602</v>
+        <v>4599</v>
       </c>
       <c r="C1260" t="s" s="4">
-        <v>4664</v>
+        <v>4665</v>
       </c>
       <c r="D1260" t="s" s="4">
-        <v>4665</v>
+        <v>4666</v>
       </c>
       <c r="E1260" t="s" s="4">
-        <v>4666</v>
+        <v>4667</v>
       </c>
     </row>
     <row r="1261" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1261" t="s" s="4">
-        <v>4667</v>
+        <v>4668</v>
       </c>
       <c r="B1261" t="s" s="4">
-        <v>4602</v>
+        <v>4599</v>
       </c>
       <c r="C1261" t="s" s="4">
-        <v>4668</v>
+        <v>4669</v>
       </c>
       <c r="D1261" t="s" s="4">
         <v>4669</v>
@@ -38075,7 +38066,7 @@
         <v>4671</v>
       </c>
       <c r="B1262" t="s" s="4">
-        <v>4602</v>
+        <v>4599</v>
       </c>
       <c r="C1262" t="s" s="4">
         <v>4672</v>
@@ -38092,7 +38083,7 @@
         <v>4674</v>
       </c>
       <c r="B1263" t="s" s="4">
-        <v>4602</v>
+        <v>4599</v>
       </c>
       <c r="C1263" t="s" s="4">
         <v>4675</v>
@@ -38109,197 +38100,197 @@
         <v>4677</v>
       </c>
       <c r="B1264" t="s" s="4">
-        <v>4602</v>
+        <v>4599</v>
       </c>
       <c r="C1264" t="s" s="4">
         <v>4678</v>
       </c>
       <c r="D1264" t="s" s="4">
-        <v>4678</v>
+        <v>4679</v>
       </c>
       <c r="E1264" t="s" s="4">
-        <v>4679</v>
+        <v>4680</v>
       </c>
     </row>
     <row r="1265" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1265" t="s" s="4">
-        <v>4680</v>
+        <v>4681</v>
       </c>
       <c r="B1265" t="s" s="4">
-        <v>4602</v>
+        <v>4599</v>
       </c>
       <c r="C1265" t="s" s="4">
-        <v>4681</v>
+        <v>4682</v>
       </c>
       <c r="D1265" t="s" s="4">
-        <v>4682</v>
+        <v>4683</v>
       </c>
       <c r="E1265" t="s" s="4">
-        <v>4683</v>
+        <v>4684</v>
       </c>
     </row>
     <row r="1266" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1266" t="s" s="4">
-        <v>4684</v>
+        <v>4685</v>
       </c>
       <c r="B1266" t="s" s="4">
-        <v>4602</v>
+        <v>4599</v>
       </c>
       <c r="C1266" t="s" s="4">
-        <v>4685</v>
+        <v>4686</v>
       </c>
       <c r="D1266" t="s" s="4">
-        <v>4686</v>
+        <v>4687</v>
       </c>
       <c r="E1266" t="s" s="4">
-        <v>4687</v>
+        <v>4688</v>
       </c>
     </row>
     <row r="1267" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1267" t="s" s="4">
-        <v>4688</v>
+        <v>4689</v>
       </c>
       <c r="B1267" t="s" s="4">
-        <v>4602</v>
+        <v>4599</v>
       </c>
       <c r="C1267" t="s" s="4">
-        <v>4689</v>
+        <v>4690</v>
       </c>
       <c r="D1267" t="s" s="4">
-        <v>4690</v>
+        <v>4691</v>
       </c>
       <c r="E1267" t="s" s="4">
-        <v>4691</v>
+        <v>4692</v>
       </c>
     </row>
     <row r="1268" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1268" t="s" s="4">
-        <v>4692</v>
+        <v>4693</v>
       </c>
       <c r="B1268" t="s" s="4">
-        <v>4602</v>
+        <v>4599</v>
       </c>
       <c r="C1268" t="s" s="4">
-        <v>4693</v>
+        <v>4694</v>
       </c>
       <c r="D1268" t="s" s="4">
-        <v>4694</v>
+        <v>4695</v>
       </c>
       <c r="E1268" t="s" s="4">
-        <v>4695</v>
+        <v>4696</v>
       </c>
     </row>
     <row r="1269" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1269" t="s" s="4">
-        <v>4696</v>
+        <v>4697</v>
       </c>
       <c r="B1269" t="s" s="4">
-        <v>4602</v>
+        <v>4599</v>
       </c>
       <c r="C1269" t="s" s="4">
-        <v>4697</v>
+        <v>4698</v>
       </c>
       <c r="D1269" t="s" s="4">
-        <v>4698</v>
+        <v>4699</v>
       </c>
       <c r="E1269" t="s" s="4">
-        <v>4699</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="1270" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1270" t="s" s="4">
-        <v>4700</v>
+        <v>4701</v>
       </c>
       <c r="B1270" t="s" s="4">
-        <v>4602</v>
+        <v>4599</v>
       </c>
       <c r="C1270" t="s" s="4">
-        <v>4701</v>
+        <v>4702</v>
       </c>
       <c r="D1270" t="s" s="4">
-        <v>4702</v>
+        <v>4703</v>
       </c>
       <c r="E1270" t="s" s="4">
-        <v>4703</v>
+        <v>4704</v>
       </c>
     </row>
     <row r="1271" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1271" t="s" s="4">
-        <v>4704</v>
+        <v>4705</v>
       </c>
       <c r="B1271" t="s" s="4">
-        <v>4602</v>
+        <v>4599</v>
       </c>
       <c r="C1271" t="s" s="4">
-        <v>4705</v>
+        <v>4706</v>
       </c>
       <c r="D1271" t="s" s="4">
-        <v>4706</v>
+        <v>4707</v>
       </c>
       <c r="E1271" t="s" s="4">
-        <v>4707</v>
+        <v>4708</v>
       </c>
     </row>
     <row r="1272" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1272" t="s" s="4">
-        <v>4708</v>
+        <v>4709</v>
       </c>
       <c r="B1272" t="s" s="4">
-        <v>4602</v>
+        <v>4599</v>
       </c>
       <c r="C1272" t="s" s="4">
-        <v>4709</v>
+        <v>4710</v>
       </c>
       <c r="D1272" t="s" s="4">
-        <v>4710</v>
+        <v>4711</v>
       </c>
       <c r="E1272" t="s" s="4">
-        <v>4711</v>
+        <v>4712</v>
       </c>
     </row>
     <row r="1273" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1273" t="s" s="4">
-        <v>4712</v>
+        <v>4713</v>
       </c>
       <c r="B1273" t="s" s="4">
-        <v>4602</v>
+        <v>4599</v>
       </c>
       <c r="C1273" t="s" s="4">
-        <v>4713</v>
+        <v>4714</v>
       </c>
       <c r="D1273" t="s" s="4">
-        <v>4714</v>
+        <v>4715</v>
       </c>
       <c r="E1273" t="s" s="4">
-        <v>4715</v>
+        <v>4716</v>
       </c>
     </row>
     <row r="1274" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1274" t="s" s="4">
-        <v>4716</v>
+        <v>4717</v>
       </c>
       <c r="B1274" t="s" s="4">
-        <v>4602</v>
+        <v>4599</v>
       </c>
       <c r="C1274" t="s" s="4">
-        <v>4717</v>
+        <v>4718</v>
       </c>
       <c r="D1274" t="s" s="4">
-        <v>4718</v>
+        <v>4719</v>
       </c>
       <c r="E1274" t="s" s="4">
-        <v>4719</v>
+        <v>4720</v>
       </c>
     </row>
     <row r="1275" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1275" t="s" s="4">
-        <v>4720</v>
+        <v>4721</v>
       </c>
       <c r="B1275" t="s" s="4">
-        <v>4602</v>
+        <v>4599</v>
       </c>
       <c r="C1275" t="s" s="4">
-        <v>4721</v>
+        <v>4722</v>
       </c>
       <c r="D1275" t="s" s="4">
         <v>4722</v>
@@ -38313,129 +38304,129 @@
         <v>4724</v>
       </c>
       <c r="B1276" t="s" s="4">
-        <v>4602</v>
+        <v>4599</v>
       </c>
       <c r="C1276" t="s" s="4">
         <v>4725</v>
       </c>
       <c r="D1276" t="s" s="4">
-        <v>4725</v>
+        <v>4726</v>
       </c>
       <c r="E1276" t="s" s="4">
-        <v>4726</v>
+        <v>4727</v>
       </c>
     </row>
     <row r="1277" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1277" t="s" s="4">
-        <v>4727</v>
+        <v>4728</v>
       </c>
       <c r="B1277" t="s" s="4">
-        <v>4602</v>
+        <v>4599</v>
       </c>
       <c r="C1277" t="s" s="4">
-        <v>4728</v>
+        <v>4729</v>
       </c>
       <c r="D1277" t="s" s="4">
-        <v>4729</v>
+        <v>4730</v>
       </c>
       <c r="E1277" t="s" s="4">
-        <v>4730</v>
+        <v>4731</v>
       </c>
     </row>
     <row r="1278" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1278" t="s" s="4">
-        <v>4731</v>
+        <v>4732</v>
       </c>
       <c r="B1278" t="s" s="4">
-        <v>4602</v>
+        <v>4599</v>
       </c>
       <c r="C1278" t="s" s="4">
-        <v>4732</v>
+        <v>4733</v>
       </c>
       <c r="D1278" t="s" s="4">
-        <v>4733</v>
+        <v>4734</v>
       </c>
       <c r="E1278" t="s" s="4">
-        <v>4734</v>
+        <v>4735</v>
       </c>
     </row>
     <row r="1279" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1279" t="s" s="4">
-        <v>4735</v>
+        <v>4736</v>
       </c>
       <c r="B1279" t="s" s="4">
-        <v>4602</v>
+        <v>4599</v>
       </c>
       <c r="C1279" t="s" s="4">
-        <v>4736</v>
+        <v>4737</v>
       </c>
       <c r="D1279" t="s" s="4">
-        <v>4737</v>
+        <v>4738</v>
       </c>
       <c r="E1279" t="s" s="4">
-        <v>4738</v>
+        <v>4739</v>
       </c>
     </row>
     <row r="1280" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1280" t="s" s="4">
-        <v>4739</v>
+        <v>4740</v>
       </c>
       <c r="B1280" t="s" s="4">
-        <v>4602</v>
+        <v>4599</v>
       </c>
       <c r="C1280" t="s" s="4">
-        <v>4740</v>
+        <v>4741</v>
       </c>
       <c r="D1280" t="s" s="4">
-        <v>4741</v>
+        <v>4742</v>
       </c>
       <c r="E1280" t="s" s="4">
-        <v>4742</v>
+        <v>4743</v>
       </c>
     </row>
     <row r="1281" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1281" t="s" s="4">
-        <v>4743</v>
+        <v>4744</v>
       </c>
       <c r="B1281" t="s" s="4">
-        <v>4602</v>
+        <v>4599</v>
       </c>
       <c r="C1281" t="s" s="4">
-        <v>4744</v>
+        <v>4745</v>
       </c>
       <c r="D1281" t="s" s="4">
-        <v>4745</v>
+        <v>4746</v>
       </c>
       <c r="E1281" t="s" s="4">
-        <v>4746</v>
+        <v>4747</v>
       </c>
     </row>
     <row r="1282" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1282" t="s" s="4">
-        <v>4747</v>
+        <v>4748</v>
       </c>
       <c r="B1282" t="s" s="4">
-        <v>4602</v>
+        <v>4599</v>
       </c>
       <c r="C1282" t="s" s="4">
-        <v>4748</v>
+        <v>4749</v>
       </c>
       <c r="D1282" t="s" s="4">
-        <v>4749</v>
+        <v>4750</v>
       </c>
       <c r="E1282" t="s" s="4">
-        <v>4750</v>
+        <v>4751</v>
       </c>
     </row>
     <row r="1283" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1283" t="s" s="4">
-        <v>4751</v>
+        <v>4752</v>
       </c>
       <c r="B1283" t="s" s="4">
-        <v>4602</v>
+        <v>4599</v>
       </c>
       <c r="C1283" t="s" s="4">
-        <v>4752</v>
+        <v>2831</v>
       </c>
       <c r="D1283" t="s" s="4">
         <v>4753</v>
@@ -38449,690 +38440,690 @@
         <v>4755</v>
       </c>
       <c r="B1284" t="s" s="4">
-        <v>4602</v>
+        <v>4599</v>
       </c>
       <c r="C1284" t="s" s="4">
-        <v>2831</v>
+        <v>4756</v>
       </c>
       <c r="D1284" t="s" s="4">
-        <v>4756</v>
+        <v>4757</v>
       </c>
       <c r="E1284" t="s" s="4">
-        <v>4757</v>
+        <v>4758</v>
       </c>
     </row>
     <row r="1285" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1285" t="s" s="4">
-        <v>4758</v>
+        <v>4759</v>
       </c>
       <c r="B1285" t="s" s="4">
-        <v>4602</v>
+        <v>4599</v>
       </c>
       <c r="C1285" t="s" s="4">
-        <v>4759</v>
+        <v>4760</v>
       </c>
       <c r="D1285" t="s" s="4">
-        <v>4760</v>
+        <v>4761</v>
       </c>
       <c r="E1285" t="s" s="4">
-        <v>4761</v>
+        <v>4762</v>
       </c>
     </row>
     <row r="1286" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1286" t="s" s="4">
-        <v>4762</v>
+        <v>4763</v>
       </c>
       <c r="B1286" t="s" s="4">
-        <v>4602</v>
+        <v>4599</v>
       </c>
       <c r="C1286" t="s" s="4">
-        <v>4763</v>
+        <v>4764</v>
       </c>
       <c r="D1286" t="s" s="4">
-        <v>4764</v>
+        <v>4765</v>
       </c>
       <c r="E1286" t="s" s="4">
-        <v>4765</v>
+        <v>4766</v>
       </c>
     </row>
     <row r="1287" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1287" t="s" s="4">
-        <v>4766</v>
+        <v>4767</v>
       </c>
       <c r="B1287" t="s" s="4">
-        <v>4602</v>
+        <v>4599</v>
       </c>
       <c r="C1287" t="s" s="4">
-        <v>4767</v>
+        <v>4768</v>
       </c>
       <c r="D1287" t="s" s="4">
-        <v>4768</v>
+        <v>4769</v>
       </c>
       <c r="E1287" t="s" s="4">
-        <v>4769</v>
+        <v>4770</v>
       </c>
     </row>
     <row r="1288" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1288" t="s" s="4">
-        <v>4770</v>
+        <v>4771</v>
       </c>
       <c r="B1288" t="s" s="4">
-        <v>4602</v>
+        <v>4599</v>
       </c>
       <c r="C1288" t="s" s="4">
-        <v>4771</v>
+        <v>4772</v>
       </c>
       <c r="D1288" t="s" s="4">
-        <v>4772</v>
+        <v>4773</v>
       </c>
       <c r="E1288" t="s" s="4">
-        <v>4773</v>
+        <v>4774</v>
       </c>
     </row>
     <row r="1289" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1289" t="s" s="4">
-        <v>4774</v>
+        <v>4775</v>
       </c>
       <c r="B1289" t="s" s="4">
-        <v>4602</v>
+        <v>4599</v>
       </c>
       <c r="C1289" t="s" s="4">
-        <v>4775</v>
+        <v>4776</v>
       </c>
       <c r="D1289" t="s" s="4">
-        <v>4776</v>
+        <v>4777</v>
       </c>
       <c r="E1289" t="s" s="4">
-        <v>4777</v>
+        <v>4778</v>
       </c>
     </row>
     <row r="1290" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1290" t="s" s="4">
-        <v>4778</v>
+        <v>4779</v>
       </c>
       <c r="B1290" t="s" s="4">
-        <v>4602</v>
+        <v>4599</v>
       </c>
       <c r="C1290" t="s" s="4">
-        <v>4779</v>
+        <v>4780</v>
       </c>
       <c r="D1290" t="s" s="4">
-        <v>4780</v>
+        <v>4781</v>
       </c>
       <c r="E1290" t="s" s="4">
-        <v>4781</v>
+        <v>4782</v>
       </c>
     </row>
     <row r="1291" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1291" t="s" s="4">
-        <v>4782</v>
+        <v>4783</v>
       </c>
       <c r="B1291" t="s" s="4">
-        <v>4602</v>
+        <v>4599</v>
       </c>
       <c r="C1291" t="s" s="4">
-        <v>4783</v>
+        <v>4784</v>
       </c>
       <c r="D1291" t="s" s="4">
-        <v>4784</v>
+        <v>4785</v>
       </c>
       <c r="E1291" t="s" s="4">
-        <v>4785</v>
+        <v>4786</v>
       </c>
     </row>
     <row r="1292" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1292" t="s" s="4">
-        <v>4786</v>
+        <v>4787</v>
       </c>
       <c r="B1292" t="s" s="4">
-        <v>4602</v>
+        <v>4599</v>
       </c>
       <c r="C1292" t="s" s="4">
-        <v>4787</v>
+        <v>4788</v>
       </c>
       <c r="D1292" t="s" s="4">
-        <v>4788</v>
+        <v>4789</v>
       </c>
       <c r="E1292" t="s" s="4">
-        <v>4789</v>
+        <v>4790</v>
       </c>
     </row>
     <row r="1293" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1293" t="s" s="4">
-        <v>4790</v>
+        <v>4791</v>
       </c>
       <c r="B1293" t="s" s="4">
-        <v>4602</v>
+        <v>4599</v>
       </c>
       <c r="C1293" t="s" s="4">
-        <v>4791</v>
+        <v>4792</v>
       </c>
       <c r="D1293" t="s" s="4">
-        <v>4792</v>
+        <v>4793</v>
       </c>
       <c r="E1293" t="s" s="4">
-        <v>4793</v>
+        <v>4794</v>
       </c>
     </row>
     <row r="1294" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1294" t="s" s="4">
-        <v>4794</v>
+        <v>4795</v>
       </c>
       <c r="B1294" t="s" s="4">
-        <v>4602</v>
+        <v>4599</v>
       </c>
       <c r="C1294" t="s" s="4">
-        <v>4795</v>
+        <v>4796</v>
       </c>
       <c r="D1294" t="s" s="4">
-        <v>4796</v>
+        <v>4797</v>
       </c>
       <c r="E1294" t="s" s="4">
-        <v>4797</v>
+        <v>4798</v>
       </c>
     </row>
     <row r="1295" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1295" t="s" s="4">
-        <v>4798</v>
+        <v>4799</v>
       </c>
       <c r="B1295" t="s" s="4">
-        <v>4602</v>
+        <v>4599</v>
       </c>
       <c r="C1295" t="s" s="4">
-        <v>4799</v>
+        <v>4800</v>
       </c>
       <c r="D1295" t="s" s="4">
-        <v>4800</v>
+        <v>4801</v>
       </c>
       <c r="E1295" t="s" s="4">
-        <v>4801</v>
+        <v>4802</v>
       </c>
     </row>
     <row r="1296" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1296" t="s" s="4">
-        <v>4802</v>
+        <v>4803</v>
       </c>
       <c r="B1296" t="s" s="4">
-        <v>4602</v>
+        <v>4599</v>
       </c>
       <c r="C1296" t="s" s="4">
-        <v>4803</v>
+        <v>4804</v>
       </c>
       <c r="D1296" t="s" s="4">
-        <v>4804</v>
+        <v>4805</v>
       </c>
       <c r="E1296" t="s" s="4">
-        <v>4805</v>
+        <v>4806</v>
       </c>
     </row>
     <row r="1297" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1297" t="s" s="4">
-        <v>4806</v>
+        <v>4807</v>
       </c>
       <c r="B1297" t="s" s="4">
-        <v>4602</v>
+        <v>4599</v>
       </c>
       <c r="C1297" t="s" s="4">
-        <v>4807</v>
+        <v>4808</v>
       </c>
       <c r="D1297" t="s" s="4">
-        <v>4808</v>
+        <v>4809</v>
       </c>
       <c r="E1297" t="s" s="4">
-        <v>4809</v>
+        <v>4810</v>
       </c>
     </row>
     <row r="1298" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1298" t="s" s="4">
-        <v>4810</v>
+        <v>4811</v>
       </c>
       <c r="B1298" t="s" s="4">
-        <v>4602</v>
+        <v>4599</v>
       </c>
       <c r="C1298" t="s" s="4">
-        <v>4811</v>
+        <v>4812</v>
       </c>
       <c r="D1298" t="s" s="4">
-        <v>4812</v>
+        <v>4813</v>
       </c>
       <c r="E1298" t="s" s="4">
-        <v>4813</v>
+        <v>4814</v>
       </c>
     </row>
     <row r="1299" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1299" t="s" s="4">
-        <v>4814</v>
+        <v>4815</v>
       </c>
       <c r="B1299" t="s" s="4">
-        <v>4602</v>
+        <v>4599</v>
       </c>
       <c r="C1299" t="s" s="4">
-        <v>4815</v>
+        <v>4816</v>
       </c>
       <c r="D1299" t="s" s="4">
-        <v>4816</v>
+        <v>4817</v>
       </c>
       <c r="E1299" t="s" s="4">
-        <v>4817</v>
+        <v>4818</v>
       </c>
     </row>
     <row r="1300" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1300" t="s" s="4">
-        <v>4818</v>
+        <v>4819</v>
       </c>
       <c r="B1300" t="s" s="4">
-        <v>4602</v>
+        <v>4599</v>
       </c>
       <c r="C1300" t="s" s="4">
-        <v>4819</v>
+        <v>4820</v>
       </c>
       <c r="D1300" t="s" s="4">
-        <v>4820</v>
+        <v>4821</v>
       </c>
       <c r="E1300" t="s" s="4">
-        <v>4821</v>
+        <v>4822</v>
       </c>
     </row>
     <row r="1301" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1301" t="s" s="4">
-        <v>4822</v>
+        <v>4823</v>
       </c>
       <c r="B1301" t="s" s="4">
-        <v>4602</v>
+        <v>4599</v>
       </c>
       <c r="C1301" t="s" s="4">
-        <v>4823</v>
+        <v>4824</v>
       </c>
       <c r="D1301" t="s" s="4">
-        <v>4824</v>
+        <v>4825</v>
       </c>
       <c r="E1301" t="s" s="4">
-        <v>4825</v>
+        <v>4826</v>
       </c>
     </row>
     <row r="1302" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1302" t="s" s="4">
-        <v>4826</v>
+        <v>4827</v>
       </c>
       <c r="B1302" t="s" s="4">
-        <v>4602</v>
+        <v>4599</v>
       </c>
       <c r="C1302" t="s" s="4">
-        <v>4827</v>
+        <v>4828</v>
       </c>
       <c r="D1302" t="s" s="4">
-        <v>4828</v>
+        <v>4829</v>
       </c>
       <c r="E1302" t="s" s="4">
-        <v>4829</v>
+        <v>4830</v>
       </c>
     </row>
     <row r="1303" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1303" t="s" s="4">
-        <v>4830</v>
+        <v>4831</v>
       </c>
       <c r="B1303" t="s" s="4">
-        <v>4602</v>
+        <v>4599</v>
       </c>
       <c r="C1303" t="s" s="4">
-        <v>4831</v>
+        <v>4832</v>
       </c>
       <c r="D1303" t="s" s="4">
-        <v>4832</v>
+        <v>4833</v>
       </c>
       <c r="E1303" t="s" s="4">
-        <v>4833</v>
+        <v>4834</v>
       </c>
     </row>
     <row r="1304" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1304" t="s" s="4">
-        <v>4834</v>
+        <v>4835</v>
       </c>
       <c r="B1304" t="s" s="4">
-        <v>4602</v>
+        <v>4599</v>
       </c>
       <c r="C1304" t="s" s="4">
-        <v>4835</v>
+        <v>4836</v>
       </c>
       <c r="D1304" t="s" s="4">
-        <v>4836</v>
+        <v>4837</v>
       </c>
       <c r="E1304" t="s" s="4">
-        <v>4837</v>
+        <v>4838</v>
       </c>
     </row>
     <row r="1305" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1305" t="s" s="4">
-        <v>4838</v>
+        <v>4839</v>
       </c>
       <c r="B1305" t="s" s="4">
-        <v>4602</v>
+        <v>4599</v>
       </c>
       <c r="C1305" t="s" s="4">
-        <v>4839</v>
+        <v>4840</v>
       </c>
       <c r="D1305" t="s" s="4">
-        <v>4840</v>
+        <v>4841</v>
       </c>
       <c r="E1305" t="s" s="4">
-        <v>4841</v>
+        <v>4842</v>
       </c>
     </row>
     <row r="1306" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1306" t="s" s="4">
-        <v>4842</v>
+        <v>4843</v>
       </c>
       <c r="B1306" t="s" s="4">
-        <v>4602</v>
+        <v>4599</v>
       </c>
       <c r="C1306" t="s" s="4">
-        <v>4843</v>
+        <v>4844</v>
       </c>
       <c r="D1306" t="s" s="4">
-        <v>4844</v>
+        <v>4845</v>
       </c>
       <c r="E1306" t="s" s="4">
-        <v>4845</v>
+        <v>4846</v>
       </c>
     </row>
     <row r="1307" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1307" t="s" s="4">
-        <v>4846</v>
+        <v>4847</v>
       </c>
       <c r="B1307" t="s" s="4">
-        <v>4602</v>
+        <v>4599</v>
       </c>
       <c r="C1307" t="s" s="4">
-        <v>4847</v>
+        <v>4848</v>
       </c>
       <c r="D1307" t="s" s="4">
-        <v>4848</v>
+        <v>4849</v>
       </c>
       <c r="E1307" t="s" s="4">
-        <v>4849</v>
+        <v>4850</v>
       </c>
     </row>
     <row r="1308" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1308" t="s" s="4">
-        <v>4850</v>
+        <v>4851</v>
       </c>
       <c r="B1308" t="s" s="4">
-        <v>4602</v>
+        <v>4599</v>
       </c>
       <c r="C1308" t="s" s="4">
-        <v>4851</v>
+        <v>4852</v>
       </c>
       <c r="D1308" t="s" s="4">
-        <v>4852</v>
+        <v>4853</v>
       </c>
       <c r="E1308" t="s" s="4">
-        <v>4853</v>
+        <v>4854</v>
       </c>
     </row>
     <row r="1309" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1309" t="s" s="4">
-        <v>4854</v>
+        <v>4855</v>
       </c>
       <c r="B1309" t="s" s="4">
-        <v>4602</v>
+        <v>4599</v>
       </c>
       <c r="C1309" t="s" s="4">
-        <v>4855</v>
+        <v>4856</v>
       </c>
       <c r="D1309" t="s" s="4">
-        <v>4856</v>
+        <v>4857</v>
       </c>
       <c r="E1309" t="s" s="4">
-        <v>4857</v>
+        <v>4858</v>
       </c>
     </row>
     <row r="1310" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1310" t="s" s="4">
-        <v>4858</v>
+        <v>4859</v>
       </c>
       <c r="B1310" t="s" s="4">
-        <v>4602</v>
+        <v>4599</v>
       </c>
       <c r="C1310" t="s" s="4">
-        <v>4859</v>
+        <v>4860</v>
       </c>
       <c r="D1310" t="s" s="4">
-        <v>4860</v>
+        <v>4861</v>
       </c>
       <c r="E1310" t="s" s="4">
-        <v>4861</v>
+        <v>4862</v>
       </c>
     </row>
     <row r="1311" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1311" t="s" s="4">
-        <v>4862</v>
+        <v>4863</v>
       </c>
       <c r="B1311" t="s" s="4">
-        <v>4602</v>
+        <v>4599</v>
       </c>
       <c r="C1311" t="s" s="4">
-        <v>4863</v>
+        <v>4864</v>
       </c>
       <c r="D1311" t="s" s="4">
-        <v>4864</v>
+        <v>4865</v>
       </c>
       <c r="E1311" t="s" s="4">
-        <v>4865</v>
+        <v>4866</v>
       </c>
     </row>
     <row r="1312" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1312" t="s" s="4">
-        <v>4866</v>
+        <v>4867</v>
       </c>
       <c r="B1312" t="s" s="4">
-        <v>4602</v>
+        <v>4599</v>
       </c>
       <c r="C1312" t="s" s="4">
-        <v>4867</v>
+        <v>4868</v>
       </c>
       <c r="D1312" t="s" s="4">
-        <v>4868</v>
+        <v>4869</v>
       </c>
       <c r="E1312" t="s" s="4">
-        <v>4869</v>
+        <v>4870</v>
       </c>
     </row>
     <row r="1313" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1313" t="s" s="4">
-        <v>4870</v>
+        <v>4871</v>
       </c>
       <c r="B1313" t="s" s="4">
-        <v>4602</v>
+        <v>4599</v>
       </c>
       <c r="C1313" t="s" s="4">
-        <v>4871</v>
+        <v>4872</v>
       </c>
       <c r="D1313" t="s" s="4">
-        <v>4872</v>
+        <v>4873</v>
       </c>
       <c r="E1313" t="s" s="4">
-        <v>4873</v>
+        <v>4874</v>
       </c>
     </row>
     <row r="1314" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1314" t="s" s="4">
-        <v>4874</v>
+        <v>4875</v>
       </c>
       <c r="B1314" t="s" s="4">
-        <v>4602</v>
+        <v>4599</v>
       </c>
       <c r="C1314" t="s" s="4">
-        <v>4875</v>
+        <v>4876</v>
       </c>
       <c r="D1314" t="s" s="4">
-        <v>4876</v>
+        <v>4877</v>
       </c>
       <c r="E1314" t="s" s="4">
-        <v>4877</v>
+        <v>4878</v>
       </c>
     </row>
     <row r="1315" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1315" t="s" s="4">
-        <v>4878</v>
+        <v>4879</v>
       </c>
       <c r="B1315" t="s" s="4">
-        <v>4602</v>
+        <v>4599</v>
       </c>
       <c r="C1315" t="s" s="4">
-        <v>4879</v>
+        <v>4880</v>
       </c>
       <c r="D1315" t="s" s="4">
-        <v>4880</v>
+        <v>4881</v>
       </c>
       <c r="E1315" t="s" s="4">
-        <v>4881</v>
+        <v>4882</v>
       </c>
     </row>
     <row r="1316" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1316" t="s" s="4">
-        <v>4882</v>
+        <v>4883</v>
       </c>
       <c r="B1316" t="s" s="4">
-        <v>4602</v>
+        <v>4599</v>
       </c>
       <c r="C1316" t="s" s="4">
-        <v>4883</v>
+        <v>4884</v>
       </c>
       <c r="D1316" t="s" s="4">
-        <v>4884</v>
+        <v>4885</v>
       </c>
       <c r="E1316" t="s" s="4">
-        <v>4885</v>
+        <v>4886</v>
       </c>
     </row>
     <row r="1317" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1317" t="s" s="4">
-        <v>4886</v>
+        <v>4887</v>
       </c>
       <c r="B1317" t="s" s="4">
-        <v>4602</v>
+        <v>4599</v>
       </c>
       <c r="C1317" t="s" s="4">
-        <v>4887</v>
+        <v>4888</v>
       </c>
       <c r="D1317" t="s" s="4">
-        <v>4888</v>
+        <v>4889</v>
       </c>
       <c r="E1317" t="s" s="4">
-        <v>4889</v>
+        <v>4890</v>
       </c>
     </row>
     <row r="1318" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1318" t="s" s="4">
-        <v>4890</v>
+        <v>4891</v>
       </c>
       <c r="B1318" t="s" s="4">
-        <v>4602</v>
+        <v>4599</v>
       </c>
       <c r="C1318" t="s" s="4">
-        <v>4891</v>
+        <v>4892</v>
       </c>
       <c r="D1318" t="s" s="4">
-        <v>4892</v>
+        <v>4893</v>
       </c>
       <c r="E1318" t="s" s="4">
-        <v>4893</v>
+        <v>4894</v>
       </c>
     </row>
     <row r="1319" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1319" t="s" s="4">
-        <v>4894</v>
+        <v>4895</v>
       </c>
       <c r="B1319" t="s" s="4">
-        <v>4602</v>
+        <v>4599</v>
       </c>
       <c r="C1319" t="s" s="4">
-        <v>4895</v>
+        <v>4896</v>
       </c>
       <c r="D1319" t="s" s="4">
-        <v>4896</v>
+        <v>4897</v>
       </c>
       <c r="E1319" t="s" s="4">
-        <v>4897</v>
+        <v>4898</v>
       </c>
     </row>
     <row r="1320" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1320" t="s" s="4">
-        <v>4898</v>
+        <v>4899</v>
       </c>
       <c r="B1320" t="s" s="4">
-        <v>4602</v>
+        <v>4599</v>
       </c>
       <c r="C1320" t="s" s="4">
-        <v>4899</v>
+        <v>4900</v>
       </c>
       <c r="D1320" t="s" s="4">
-        <v>4900</v>
+        <v>4901</v>
       </c>
       <c r="E1320" t="s" s="4">
-        <v>4901</v>
+        <v>4902</v>
       </c>
     </row>
     <row r="1321" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1321" t="s" s="4">
-        <v>4902</v>
+        <v>4903</v>
       </c>
       <c r="B1321" t="s" s="4">
-        <v>4602</v>
+        <v>4599</v>
       </c>
       <c r="C1321" t="s" s="4">
-        <v>4903</v>
+        <v>4904</v>
       </c>
       <c r="D1321" t="s" s="4">
-        <v>4904</v>
+        <v>4905</v>
       </c>
       <c r="E1321" t="s" s="4">
-        <v>4905</v>
+        <v>4906</v>
       </c>
     </row>
     <row r="1322" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1322" t="s" s="4">
-        <v>4906</v>
+        <v>4907</v>
       </c>
       <c r="B1322" t="s" s="4">
-        <v>4602</v>
+        <v>4599</v>
       </c>
       <c r="C1322" t="s" s="4">
-        <v>4907</v>
+        <v>4908</v>
       </c>
       <c r="D1322" t="s" s="4">
-        <v>4908</v>
+        <v>4909</v>
       </c>
       <c r="E1322" t="s" s="4">
-        <v>4909</v>
+        <v>4910</v>
       </c>
     </row>
     <row r="1323" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1323" t="s" s="4">
-        <v>4910</v>
+        <v>4911</v>
       </c>
       <c r="B1323" t="s" s="4">
-        <v>4602</v>
+        <v>4599</v>
       </c>
       <c r="C1323" t="s" s="4">
-        <v>4911</v>
+        <v>4912</v>
       </c>
       <c r="D1323" t="s" s="4">
-        <v>4912</v>
+        <v>4913</v>
       </c>
       <c r="E1323" t="s" s="4">
-        <v>4913</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1324" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1324" t="s" s="4">
-        <v>4914</v>
+        <v>4915</v>
       </c>
       <c r="B1324" t="s" s="4">
-        <v>4602</v>
+        <v>4599</v>
       </c>
       <c r="C1324" t="s" s="4">
-        <v>4915</v>
+        <v>4916</v>
       </c>
       <c r="D1324" t="s" s="4">
         <v>4916</v>
@@ -39146,92 +39137,92 @@
         <v>4918</v>
       </c>
       <c r="B1325" t="s" s="4">
-        <v>4602</v>
+        <v>4599</v>
       </c>
       <c r="C1325" t="s" s="4">
         <v>4919</v>
       </c>
       <c r="D1325" t="s" s="4">
-        <v>4919</v>
+        <v>4920</v>
       </c>
       <c r="E1325" t="s" s="4">
-        <v>4920</v>
+        <v>4921</v>
       </c>
     </row>
     <row r="1326" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1326" t="s" s="4">
-        <v>4921</v>
+        <v>4922</v>
       </c>
       <c r="B1326" t="s" s="4">
-        <v>4602</v>
+        <v>4599</v>
       </c>
       <c r="C1326" t="s" s="4">
-        <v>4922</v>
+        <v>4923</v>
       </c>
       <c r="D1326" t="s" s="4">
-        <v>4923</v>
+        <v>4924</v>
       </c>
       <c r="E1326" t="s" s="4">
-        <v>4924</v>
+        <v>4925</v>
       </c>
     </row>
     <row r="1327" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1327" t="s" s="4">
-        <v>4925</v>
+        <v>4926</v>
       </c>
       <c r="B1327" t="s" s="4">
-        <v>4602</v>
+        <v>4599</v>
       </c>
       <c r="C1327" t="s" s="4">
-        <v>4926</v>
+        <v>4927</v>
       </c>
       <c r="D1327" t="s" s="4">
-        <v>4927</v>
+        <v>4928</v>
       </c>
       <c r="E1327" t="s" s="4">
-        <v>4928</v>
+        <v>4929</v>
       </c>
     </row>
     <row r="1328" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1328" t="s" s="4">
-        <v>4929</v>
+        <v>4930</v>
       </c>
       <c r="B1328" t="s" s="4">
-        <v>4602</v>
+        <v>4599</v>
       </c>
       <c r="C1328" t="s" s="4">
-        <v>4930</v>
+        <v>4931</v>
       </c>
       <c r="D1328" t="s" s="4">
-        <v>4931</v>
+        <v>4932</v>
       </c>
       <c r="E1328" t="s" s="4">
-        <v>4932</v>
+        <v>4933</v>
       </c>
     </row>
     <row r="1329" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1329" t="s" s="4">
-        <v>4933</v>
+        <v>4934</v>
       </c>
       <c r="B1329" t="s" s="4">
-        <v>4602</v>
+        <v>4935</v>
       </c>
       <c r="C1329" t="s" s="4">
-        <v>4934</v>
+        <v>4936</v>
       </c>
       <c r="D1329" t="s" s="4">
-        <v>4935</v>
+        <v>4936</v>
       </c>
       <c r="E1329" t="s" s="4">
-        <v>4936</v>
+        <v>4937</v>
       </c>
     </row>
     <row r="1330" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1330" t="s" s="4">
-        <v>4937</v>
+        <v>4938</v>
       </c>
       <c r="B1330" t="s" s="4">
-        <v>4938</v>
+        <v>4935</v>
       </c>
       <c r="C1330" t="s" s="4">
         <v>4939</v>
@@ -39248,27 +39239,27 @@
         <v>4941</v>
       </c>
       <c r="B1331" t="s" s="4">
-        <v>4938</v>
+        <v>4935</v>
       </c>
       <c r="C1331" t="s" s="4">
         <v>4942</v>
       </c>
       <c r="D1331" t="s" s="4">
-        <v>4942</v>
+        <v>4943</v>
       </c>
       <c r="E1331" t="s" s="4">
-        <v>4943</v>
+        <v>4944</v>
       </c>
     </row>
     <row r="1332" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1332" t="s" s="4">
-        <v>4944</v>
+        <v>4945</v>
       </c>
       <c r="B1332" t="s" s="4">
-        <v>4938</v>
+        <v>4935</v>
       </c>
       <c r="C1332" t="s" s="4">
-        <v>4945</v>
+        <v>4946</v>
       </c>
       <c r="D1332" t="s" s="4">
         <v>4946</v>
@@ -39282,78 +39273,78 @@
         <v>4948</v>
       </c>
       <c r="B1333" t="s" s="4">
-        <v>4938</v>
+        <v>4935</v>
       </c>
       <c r="C1333" t="s" s="4">
         <v>4949</v>
       </c>
       <c r="D1333" t="s" s="4">
-        <v>4949</v>
+        <v>4950</v>
       </c>
       <c r="E1333" t="s" s="4">
-        <v>4950</v>
+        <v>4951</v>
       </c>
     </row>
     <row r="1334" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1334" t="s" s="4">
-        <v>4951</v>
+        <v>4952</v>
       </c>
       <c r="B1334" t="s" s="4">
-        <v>4938</v>
+        <v>4953</v>
       </c>
       <c r="C1334" t="s" s="4">
-        <v>4952</v>
+        <v>4954</v>
       </c>
       <c r="D1334" t="s" s="4">
-        <v>4953</v>
+        <v>4954</v>
       </c>
       <c r="E1334" t="s" s="4">
-        <v>4954</v>
+        <v>4955</v>
       </c>
     </row>
     <row r="1335" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1335" t="s" s="4">
-        <v>4955</v>
+        <v>4956</v>
       </c>
       <c r="B1335" t="s" s="4">
-        <v>4956</v>
+        <v>4953</v>
       </c>
       <c r="C1335" t="s" s="4">
         <v>4957</v>
       </c>
       <c r="D1335" t="s" s="4">
-        <v>4957</v>
+        <v>4958</v>
       </c>
       <c r="E1335" t="s" s="4">
-        <v>4958</v>
+        <v>4959</v>
       </c>
     </row>
     <row r="1336" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1336" t="s" s="4">
-        <v>4959</v>
+        <v>4960</v>
       </c>
       <c r="B1336" t="s" s="4">
-        <v>4956</v>
+        <v>4953</v>
       </c>
       <c r="C1336" t="s" s="4">
-        <v>4960</v>
+        <v>4961</v>
       </c>
       <c r="D1336" t="s" s="4">
-        <v>4961</v>
+        <v>4962</v>
       </c>
       <c r="E1336" t="s" s="4">
-        <v>4962</v>
+        <v>4963</v>
       </c>
     </row>
     <row r="1337" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1337" t="s" s="4">
-        <v>4963</v>
+        <v>4964</v>
       </c>
       <c r="B1337" t="s" s="4">
-        <v>4956</v>
+        <v>4953</v>
       </c>
       <c r="C1337" t="s" s="4">
-        <v>4964</v>
+        <v>4965</v>
       </c>
       <c r="D1337" t="s" s="4">
         <v>4965</v>
@@ -39367,7 +39358,7 @@
         <v>4967</v>
       </c>
       <c r="B1338" t="s" s="4">
-        <v>4956</v>
+        <v>4953</v>
       </c>
       <c r="C1338" t="s" s="4">
         <v>4968</v>
@@ -39384,7 +39375,7 @@
         <v>4970</v>
       </c>
       <c r="B1339" t="s" s="4">
-        <v>4956</v>
+        <v>4953</v>
       </c>
       <c r="C1339" t="s" s="4">
         <v>4971</v>
@@ -39401,27 +39392,27 @@
         <v>4973</v>
       </c>
       <c r="B1340" t="s" s="4">
-        <v>4956</v>
+        <v>4953</v>
       </c>
       <c r="C1340" t="s" s="4">
         <v>4974</v>
       </c>
       <c r="D1340" t="s" s="4">
-        <v>4974</v>
+        <v>4975</v>
       </c>
       <c r="E1340" t="s" s="4">
-        <v>4975</v>
+        <v>4976</v>
       </c>
     </row>
     <row r="1341" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1341" t="s" s="4">
-        <v>4976</v>
+        <v>4977</v>
       </c>
       <c r="B1341" t="s" s="4">
-        <v>4956</v>
+        <v>4953</v>
       </c>
       <c r="C1341" t="s" s="4">
-        <v>4977</v>
+        <v>4978</v>
       </c>
       <c r="D1341" t="s" s="4">
         <v>4978</v>
@@ -39435,7 +39426,7 @@
         <v>4980</v>
       </c>
       <c r="B1342" t="s" s="4">
-        <v>4956</v>
+        <v>4953</v>
       </c>
       <c r="C1342" t="s" s="4">
         <v>4981</v>
@@ -39452,7 +39443,7 @@
         <v>4983</v>
       </c>
       <c r="B1343" t="s" s="4">
-        <v>4956</v>
+        <v>4953</v>
       </c>
       <c r="C1343" t="s" s="4">
         <v>4984</v>
@@ -39462,23 +39453,6 @@
       </c>
       <c r="E1343" t="s" s="4">
         <v>4985</v>
-      </c>
-    </row>
-    <row r="1344" s="2" customFormat="1" ht="23" customHeight="1">
-      <c r="A1344" t="s" s="4">
-        <v>4986</v>
-      </c>
-      <c r="B1344" t="s" s="4">
-        <v>4956</v>
-      </c>
-      <c r="C1344" t="s" s="4">
-        <v>4987</v>
-      </c>
-      <c r="D1344" t="s" s="4">
-        <v>4987</v>
-      </c>
-      <c r="E1344" t="s" s="4">
-        <v>4988</v>
       </c>
     </row>
   </sheetData>
